--- a/ONAPonOpenshift-IssueTracker.xlsx
+++ b/ONAPonOpenshift-IssueTracker.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ONAP-Telus-Frankfruit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ONAP-Telus-Frankfruit\OOM-my-git\oom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E312E6-CBC8-437B-9AE4-38135CBC95F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446B489C-BD04-481E-85D2-FA4F96A7FCB3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B7C4B8F9-F985-4717-81B0-9B1D4613E6F6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="354">
   <si>
     <t>Component</t>
   </si>
@@ -1107,6 +1107,9 @@
   </si>
   <si>
     <t>memory: 512Mi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CrashLoopBack Off          </t>
   </si>
 </sst>
 </file>
@@ -1244,6 +1247,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1256,18 +1271,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1597,12 +1600,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -1619,7 +1622,7 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2"/>
@@ -1631,7 +1634,7 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -1641,7 +1644,7 @@
       </c>
     </row>
     <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -1651,7 +1654,7 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1665,7 +1668,7 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1677,7 +1680,7 @@
       </c>
     </row>
     <row r="8" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
+      <c r="B8" s="18"/>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1689,7 +1692,7 @@
       </c>
     </row>
     <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="2"/>
@@ -1701,7 +1704,7 @@
       </c>
     </row>
     <row r="10" spans="2:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1713,7 +1716,7 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
@@ -1725,7 +1728,7 @@
       </c>
     </row>
     <row r="12" spans="2:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
@@ -1737,7 +1740,7 @@
       </c>
     </row>
     <row r="13" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1751,7 +1754,7 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1763,7 +1766,7 @@
       </c>
     </row>
     <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1775,7 +1778,7 @@
       </c>
     </row>
     <row r="16" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="3" t="s">
         <v>30</v>
       </c>
@@ -1787,7 +1790,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
+      <c r="B17" s="21"/>
       <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
@@ -1799,7 +1802,7 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
@@ -1811,7 +1814,7 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1825,7 +1828,7 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="12"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
@@ -1837,7 +1840,7 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="2" t="s">
         <v>39</v>
       </c>
@@ -1849,7 +1852,7 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="12"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="2" t="s">
         <v>41</v>
       </c>
@@ -1861,7 +1864,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="12"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="2" t="s">
         <v>43</v>
       </c>
@@ -1873,7 +1876,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="12"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
@@ -1885,7 +1888,7 @@
       </c>
     </row>
     <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="2" t="s">
         <v>45</v>
       </c>
@@ -1897,7 +1900,7 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
@@ -1923,7 +1926,7 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="12" t="s">
+      <c r="B28" s="18" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1937,7 +1940,7 @@
       </c>
     </row>
     <row r="29" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="12"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="2" t="s">
         <v>55</v>
       </c>
@@ -1949,7 +1952,7 @@
       </c>
     </row>
     <row r="30" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
+      <c r="B30" s="18"/>
       <c r="C30" s="2" t="s">
         <v>57</v>
       </c>
@@ -1961,7 +1964,7 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="12"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="2" t="s">
         <v>58</v>
       </c>
@@ -1973,7 +1976,7 @@
       </c>
     </row>
     <row r="32" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="12"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="2" t="s">
         <v>59</v>
       </c>
@@ -1983,7 +1986,7 @@
       </c>
     </row>
     <row r="33" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="12"/>
+      <c r="B33" s="18"/>
       <c r="C33" s="2" t="s">
         <v>60</v>
       </c>
@@ -1993,7 +1996,7 @@
       </c>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="12"/>
+      <c r="B34" s="18"/>
       <c r="C34" s="2" t="s">
         <v>61</v>
       </c>
@@ -2003,7 +2006,7 @@
       </c>
     </row>
     <row r="35" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="12"/>
+      <c r="B35" s="18"/>
       <c r="C35" s="2" t="s">
         <v>62</v>
       </c>
@@ -2013,7 +2016,7 @@
       </c>
     </row>
     <row r="36" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="12"/>
+      <c r="B36" s="18"/>
       <c r="C36" s="2" t="s">
         <v>63</v>
       </c>
@@ -2023,7 +2026,7 @@
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="12"/>
+      <c r="B37" s="18"/>
       <c r="C37" s="2" t="s">
         <v>64</v>
       </c>
@@ -2035,7 +2038,7 @@
       </c>
     </row>
     <row r="38" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="12"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="2" t="s">
         <v>66</v>
       </c>
@@ -2047,7 +2050,7 @@
       </c>
     </row>
     <row r="39" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="12"/>
+      <c r="B39" s="18"/>
       <c r="C39" s="2" t="s">
         <v>67</v>
       </c>
@@ -2057,7 +2060,7 @@
       </c>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -2069,7 +2072,7 @@
       </c>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="12"/>
+      <c r="B41" s="18"/>
       <c r="C41" s="2" t="s">
         <v>70</v>
       </c>
@@ -2079,7 +2082,7 @@
       </c>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="12"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="2" t="s">
         <v>71</v>
       </c>
@@ -2089,7 +2092,7 @@
       </c>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="12"/>
+      <c r="B43" s="18"/>
       <c r="C43" s="2" t="s">
         <v>72</v>
       </c>
@@ -2099,7 +2102,7 @@
       </c>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="12"/>
+      <c r="B44" s="18"/>
       <c r="C44" s="2" t="s">
         <v>73</v>
       </c>
@@ -2109,7 +2112,7 @@
       </c>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="12"/>
+      <c r="B45" s="18"/>
       <c r="C45" s="2" t="s">
         <v>74</v>
       </c>
@@ -2119,7 +2122,7 @@
       </c>
     </row>
     <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="12"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="2" t="s">
         <v>75</v>
       </c>
@@ -2129,7 +2132,7 @@
       </c>
     </row>
     <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="12"/>
+      <c r="B47" s="18"/>
       <c r="C47" s="2" t="s">
         <v>76</v>
       </c>
@@ -2139,7 +2142,7 @@
       </c>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="12"/>
+      <c r="B48" s="18"/>
       <c r="C48" s="2" t="s">
         <v>77</v>
       </c>
@@ -2149,7 +2152,7 @@
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="12"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="2" t="s">
         <v>78</v>
       </c>
@@ -2159,7 +2162,7 @@
       </c>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="12"/>
+      <c r="B50" s="18"/>
       <c r="C50" s="2" t="s">
         <v>79</v>
       </c>
@@ -2171,7 +2174,7 @@
       </c>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="12"/>
+      <c r="B51" s="18"/>
       <c r="C51" s="2" t="s">
         <v>81</v>
       </c>
@@ -2183,7 +2186,7 @@
       </c>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="12"/>
+      <c r="B52" s="18"/>
       <c r="C52" s="2" t="s">
         <v>83</v>
       </c>
@@ -2195,7 +2198,7 @@
       </c>
     </row>
     <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="12"/>
+      <c r="B53" s="18"/>
       <c r="C53" s="2" t="s">
         <v>84</v>
       </c>
@@ -2207,7 +2210,7 @@
       </c>
     </row>
     <row r="54" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B54" s="12"/>
+      <c r="B54" s="18"/>
       <c r="C54" s="2" t="s">
         <v>85</v>
       </c>
@@ -2219,7 +2222,7 @@
       </c>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="12"/>
+      <c r="B55" s="18"/>
       <c r="C55" s="2" t="s">
         <v>49</v>
       </c>
@@ -2231,7 +2234,7 @@
       </c>
     </row>
     <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="12"/>
+      <c r="B56" s="18"/>
       <c r="C56" s="2" t="s">
         <v>87</v>
       </c>
@@ -2264,7 +2267,7 @@
   <dimension ref="A1:G247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D233" sqref="D233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2276,19 +2279,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="13" t="s">
         <v>348</v>
       </c>
     </row>
@@ -2296,7 +2299,7 @@
       <c r="A2" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="12">
         <v>44197</v>
       </c>
       <c r="C2" t="s">
@@ -2307,7 +2310,7 @@
       <c r="A3" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="12">
         <v>44197</v>
       </c>
       <c r="C3" t="s">
@@ -2327,55 +2330,55 @@
       <c r="D4" t="s">
         <v>345</v>
       </c>
-      <c r="F4" s="21"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="12">
         <v>44197</v>
       </c>
       <c r="C5" t="s">
         <v>331</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="12">
         <v>44197</v>
       </c>
       <c r="C6" t="s">
         <v>331</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="7" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="12">
         <v>44197</v>
       </c>
       <c r="C7" t="s">
         <v>331</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="14"/>
     </row>
     <row r="8" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="12">
         <v>44197</v>
       </c>
       <c r="C8" t="s">
         <v>331</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -2387,58 +2390,58 @@
       <c r="C9" t="s">
         <v>332</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="F9" s="21"/>
+      <c r="F9" s="17"/>
     </row>
     <row r="10" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="12">
         <v>44197</v>
       </c>
       <c r="C10" t="s">
         <v>331</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="14"/>
     </row>
     <row r="11" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="12">
         <v>44197</v>
       </c>
       <c r="C11" t="s">
         <v>331</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="14"/>
     </row>
     <row r="12" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="12">
         <v>44197</v>
       </c>
       <c r="C12" t="s">
         <v>331</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="12">
         <v>44229</v>
       </c>
       <c r="C13" t="s">
         <v>331</v>
       </c>
-      <c r="F13" s="18"/>
+      <c r="F13" s="14"/>
     </row>
     <row r="14" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -2450,7 +2453,7 @@
       <c r="C14" t="s">
         <v>333</v>
       </c>
-      <c r="F14" s="18"/>
+      <c r="F14" s="14"/>
     </row>
     <row r="15" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2462,19 +2465,19 @@
       <c r="C15" t="s">
         <v>333</v>
       </c>
-      <c r="F15" s="18"/>
+      <c r="F15" s="14"/>
     </row>
     <row r="16" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="12">
         <v>44229</v>
       </c>
       <c r="C16" t="s">
         <v>331</v>
       </c>
-      <c r="F16" s="18"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -2486,19 +2489,19 @@
       <c r="C17" t="s">
         <v>334</v>
       </c>
-      <c r="F17" s="18"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="12">
         <v>44229</v>
       </c>
       <c r="C18" t="s">
         <v>331</v>
       </c>
-      <c r="F18" s="18"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -2510,13 +2513,13 @@
       <c r="C19" t="s">
         <v>332</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="F19" s="21"/>
+      <c r="F19" s="17"/>
     </row>
     <row r="20" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -2528,7 +2531,7 @@
       <c r="C20" t="s">
         <v>335</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -2540,7 +2543,7 @@
       <c r="C21" t="s">
         <v>335</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="14"/>
       <c r="G21" t="s">
         <v>351</v>
       </c>
@@ -2555,7 +2558,7 @@
       <c r="C22" t="s">
         <v>335</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="14"/>
       <c r="G22" t="s">
         <v>352</v>
       </c>
@@ -2570,7 +2573,7 @@
       <c r="C23" t="s">
         <v>335</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="24" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -2582,7 +2585,7 @@
       <c r="C24" t="s">
         <v>335</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="14"/>
     </row>
     <row r="25" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -2594,7 +2597,7 @@
       <c r="C25" t="s">
         <v>335</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -2606,7 +2609,7 @@
       <c r="C26" t="s">
         <v>335</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -2618,7 +2621,7 @@
       <c r="C27" t="s">
         <v>335</v>
       </c>
-      <c r="F27" s="18"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -2630,7 +2633,7 @@
       <c r="C28" t="s">
         <v>335</v>
       </c>
-      <c r="F28" s="18"/>
+      <c r="F28" s="14"/>
     </row>
     <row r="29" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -2642,7 +2645,7 @@
       <c r="C29" t="s">
         <v>335</v>
       </c>
-      <c r="F29" s="18"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -2654,7 +2657,7 @@
       <c r="C30" t="s">
         <v>335</v>
       </c>
-      <c r="F30" s="18"/>
+      <c r="F30" s="14"/>
     </row>
     <row r="31" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -2666,7 +2669,7 @@
       <c r="C31" t="s">
         <v>335</v>
       </c>
-      <c r="F31" s="18"/>
+      <c r="F31" s="14"/>
     </row>
     <row r="32" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
@@ -2678,7 +2681,7 @@
       <c r="C32" t="s">
         <v>335</v>
       </c>
-      <c r="F32" s="18"/>
+      <c r="F32" s="14"/>
     </row>
     <row r="33" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -2690,7 +2693,7 @@
       <c r="C33" t="s">
         <v>335</v>
       </c>
-      <c r="F33" s="18"/>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -2702,7 +2705,7 @@
       <c r="C34" t="s">
         <v>335</v>
       </c>
-      <c r="F34" s="18"/>
+      <c r="F34" s="14"/>
     </row>
     <row r="35" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -2714,19 +2717,19 @@
       <c r="C35" t="s">
         <v>334</v>
       </c>
-      <c r="F35" s="18"/>
+      <c r="F35" s="14"/>
     </row>
     <row r="36" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="12">
         <v>44229</v>
       </c>
       <c r="C36" t="s">
         <v>331</v>
       </c>
-      <c r="F36" s="18"/>
+      <c r="F36" s="14"/>
     </row>
     <row r="37" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
@@ -2738,31 +2741,31 @@
       <c r="C37" t="s">
         <v>334</v>
       </c>
-      <c r="F37" s="18"/>
+      <c r="F37" s="14"/>
     </row>
     <row r="38" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>131</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="12">
         <v>44229</v>
       </c>
       <c r="C38" t="s">
         <v>331</v>
       </c>
-      <c r="F38" s="18"/>
+      <c r="F38" s="14"/>
     </row>
     <row r="39" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>132</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="12">
         <v>44229</v>
       </c>
       <c r="C39" t="s">
         <v>331</v>
       </c>
-      <c r="F39" s="18"/>
+      <c r="F39" s="14"/>
     </row>
     <row r="40" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -2774,7 +2777,7 @@
       <c r="C40" t="s">
         <v>334</v>
       </c>
-      <c r="F40" s="18"/>
+      <c r="F40" s="14"/>
     </row>
     <row r="41" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
@@ -2786,31 +2789,31 @@
       <c r="C41" t="s">
         <v>334</v>
       </c>
-      <c r="F41" s="18"/>
+      <c r="F41" s="14"/>
     </row>
     <row r="42" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>135</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="12">
         <v>44197</v>
       </c>
       <c r="C42" t="s">
         <v>331</v>
       </c>
-      <c r="F42" s="18"/>
+      <c r="F42" s="14"/>
     </row>
     <row r="43" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>136</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="12">
         <v>44197</v>
       </c>
       <c r="C43" t="s">
         <v>331</v>
       </c>
-      <c r="F43" s="18"/>
+      <c r="F43" s="14"/>
     </row>
     <row r="44" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -2822,7 +2825,7 @@
       <c r="C44" t="s">
         <v>336</v>
       </c>
-      <c r="F44" s="18"/>
+      <c r="F44" s="14"/>
     </row>
     <row r="45" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
@@ -2834,7 +2837,7 @@
       <c r="C45" t="s">
         <v>331</v>
       </c>
-      <c r="F45" s="18"/>
+      <c r="F45" s="14"/>
     </row>
     <row r="46" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
@@ -2846,7 +2849,7 @@
       <c r="C46" t="s">
         <v>337</v>
       </c>
-      <c r="F46" s="18"/>
+      <c r="F46" s="14"/>
     </row>
     <row r="47" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -2858,7 +2861,7 @@
       <c r="C47" t="s">
         <v>337</v>
       </c>
-      <c r="F47" s="18"/>
+      <c r="F47" s="14"/>
     </row>
     <row r="48" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -2870,7 +2873,7 @@
       <c r="C48" t="s">
         <v>337</v>
       </c>
-      <c r="F48" s="18"/>
+      <c r="F48" s="14"/>
     </row>
     <row r="49" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -2882,19 +2885,19 @@
       <c r="C49" t="s">
         <v>337</v>
       </c>
-      <c r="F49" s="18"/>
+      <c r="F49" s="14"/>
     </row>
     <row r="50" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>143</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="12">
         <v>44197</v>
       </c>
       <c r="C50" t="s">
         <v>331</v>
       </c>
-      <c r="F50" s="18"/>
+      <c r="F50" s="14"/>
     </row>
     <row r="51" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -2906,7 +2909,7 @@
       <c r="C51" t="s">
         <v>337</v>
       </c>
-      <c r="F51" s="18"/>
+      <c r="F51" s="14"/>
     </row>
     <row r="52" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
@@ -2918,31 +2921,31 @@
       <c r="C52" t="s">
         <v>334</v>
       </c>
-      <c r="F52" s="18"/>
+      <c r="F52" s="14"/>
     </row>
     <row r="53" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>146</v>
       </c>
-      <c r="B53" s="16">
+      <c r="B53" s="12">
         <v>44197</v>
       </c>
       <c r="C53" t="s">
         <v>331</v>
       </c>
-      <c r="F53" s="18"/>
+      <c r="F53" s="14"/>
     </row>
     <row r="54" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>147</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="12">
         <v>44197</v>
       </c>
       <c r="C54" t="s">
         <v>331</v>
       </c>
-      <c r="F54" s="18"/>
+      <c r="F54" s="14"/>
     </row>
     <row r="55" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
@@ -2954,7 +2957,7 @@
       <c r="C55" t="s">
         <v>336</v>
       </c>
-      <c r="F55" s="18"/>
+      <c r="F55" s="14"/>
     </row>
     <row r="56" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -2966,7 +2969,7 @@
       <c r="C56" t="s">
         <v>90</v>
       </c>
-      <c r="F56" s="18"/>
+      <c r="F56" s="14"/>
     </row>
     <row r="57" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
@@ -2978,7 +2981,7 @@
       <c r="C57" t="s">
         <v>337</v>
       </c>
-      <c r="F57" s="18"/>
+      <c r="F57" s="14"/>
     </row>
     <row r="58" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
@@ -2990,7 +2993,7 @@
       <c r="C58" t="s">
         <v>335</v>
       </c>
-      <c r="F58" s="18"/>
+      <c r="F58" s="14"/>
     </row>
     <row r="59" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
@@ -3002,7 +3005,7 @@
       <c r="C59" t="s">
         <v>335</v>
       </c>
-      <c r="F59" s="18"/>
+      <c r="F59" s="14"/>
     </row>
     <row r="60" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -3014,7 +3017,7 @@
       <c r="C60" t="s">
         <v>335</v>
       </c>
-      <c r="F60" s="18"/>
+      <c r="F60" s="14"/>
     </row>
     <row r="61" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
@@ -3026,7 +3029,7 @@
       <c r="C61" t="s">
         <v>335</v>
       </c>
-      <c r="F61" s="18"/>
+      <c r="F61" s="14"/>
     </row>
     <row r="62" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -3038,19 +3041,19 @@
       <c r="C62" t="s">
         <v>337</v>
       </c>
-      <c r="F62" s="18"/>
+      <c r="F62" s="14"/>
     </row>
     <row r="63" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>156</v>
       </c>
-      <c r="B63" s="16">
+      <c r="B63" s="12">
         <v>44197</v>
       </c>
       <c r="C63" t="s">
         <v>331</v>
       </c>
-      <c r="F63" s="18"/>
+      <c r="F63" s="14"/>
     </row>
     <row r="64" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
@@ -3062,7 +3065,7 @@
       <c r="C64" t="s">
         <v>338</v>
       </c>
-      <c r="F64" s="18"/>
+      <c r="F64" s="14"/>
     </row>
     <row r="65" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
@@ -3074,7 +3077,7 @@
       <c r="C65" t="s">
         <v>339</v>
       </c>
-      <c r="F65" s="18"/>
+      <c r="F65" s="14"/>
     </row>
     <row r="66" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
@@ -3086,7 +3089,7 @@
       <c r="C66" t="s">
         <v>339</v>
       </c>
-      <c r="F66" s="18"/>
+      <c r="F66" s="14"/>
     </row>
     <row r="67" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
@@ -3098,19 +3101,19 @@
       <c r="C67" t="s">
         <v>340</v>
       </c>
-      <c r="F67" s="18"/>
+      <c r="F67" s="14"/>
     </row>
     <row r="68" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>161</v>
       </c>
-      <c r="B68" s="16">
+      <c r="B68" s="12">
         <v>44197</v>
       </c>
       <c r="C68" t="s">
         <v>331</v>
       </c>
-      <c r="F68" s="18"/>
+      <c r="F68" s="14"/>
     </row>
     <row r="69" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
@@ -3122,7 +3125,7 @@
       <c r="C69" t="s">
         <v>338</v>
       </c>
-      <c r="F69" s="18"/>
+      <c r="F69" s="14"/>
     </row>
     <row r="70" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -3134,7 +3137,7 @@
       <c r="C70" t="s">
         <v>337</v>
       </c>
-      <c r="F70" s="18"/>
+      <c r="F70" s="14"/>
     </row>
     <row r="71" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -3146,7 +3149,7 @@
       <c r="C71" t="s">
         <v>340</v>
       </c>
-      <c r="F71" s="18"/>
+      <c r="F71" s="14"/>
     </row>
     <row r="72" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -3158,7 +3161,7 @@
       <c r="C72" t="s">
         <v>339</v>
       </c>
-      <c r="F72" s="18"/>
+      <c r="F72" s="14"/>
     </row>
     <row r="73" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -3170,55 +3173,55 @@
       <c r="C73" t="s">
         <v>341</v>
       </c>
-      <c r="F73" s="18"/>
+      <c r="F73" s="14"/>
     </row>
     <row r="74" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>167</v>
       </c>
-      <c r="B74" s="16">
+      <c r="B74" s="12">
         <v>44197</v>
       </c>
       <c r="C74" t="s">
         <v>331</v>
       </c>
-      <c r="F74" s="18"/>
+      <c r="F74" s="14"/>
     </row>
     <row r="75" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>168</v>
       </c>
-      <c r="B75" s="16">
+      <c r="B75" s="12">
         <v>44229</v>
       </c>
       <c r="C75" t="s">
         <v>331</v>
       </c>
-      <c r="F75" s="18"/>
+      <c r="F75" s="14"/>
     </row>
     <row r="76" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>169</v>
       </c>
-      <c r="B76" s="16">
+      <c r="B76" s="12">
         <v>44197</v>
       </c>
       <c r="C76" t="s">
         <v>331</v>
       </c>
-      <c r="F76" s="18"/>
+      <c r="F76" s="14"/>
     </row>
     <row r="77" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>170</v>
       </c>
-      <c r="B77" s="16">
+      <c r="B77" s="12">
         <v>44197</v>
       </c>
       <c r="C77" t="s">
         <v>331</v>
       </c>
-      <c r="F77" s="18"/>
+      <c r="F77" s="14"/>
     </row>
     <row r="78" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
@@ -3230,7 +3233,7 @@
       <c r="C78" t="s">
         <v>90</v>
       </c>
-      <c r="F78" s="18"/>
+      <c r="F78" s="14"/>
     </row>
     <row r="79" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
@@ -3242,7 +3245,7 @@
       <c r="C79" t="s">
         <v>336</v>
       </c>
-      <c r="F79" s="18"/>
+      <c r="F79" s="14"/>
     </row>
     <row r="80" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
@@ -3254,199 +3257,199 @@
       <c r="C80" t="s">
         <v>90</v>
       </c>
-      <c r="F80" s="18"/>
+      <c r="F80" s="14"/>
     </row>
     <row r="81" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>174</v>
       </c>
-      <c r="B81" s="16">
+      <c r="B81" s="12">
         <v>44197</v>
       </c>
       <c r="C81" t="s">
         <v>331</v>
       </c>
-      <c r="F81" s="18"/>
+      <c r="F81" s="14"/>
     </row>
     <row r="82" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>175</v>
       </c>
-      <c r="B82" s="16">
+      <c r="B82" s="12">
         <v>44197</v>
       </c>
       <c r="C82" t="s">
         <v>331</v>
       </c>
-      <c r="F82" s="18"/>
+      <c r="F82" s="14"/>
     </row>
     <row r="83" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>176</v>
       </c>
-      <c r="B83" s="16">
+      <c r="B83" s="12">
         <v>44197</v>
       </c>
       <c r="C83" t="s">
         <v>331</v>
       </c>
-      <c r="F83" s="18"/>
+      <c r="F83" s="14"/>
     </row>
     <row r="84" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>177</v>
       </c>
-      <c r="B84" s="16">
+      <c r="B84" s="12">
         <v>44229</v>
       </c>
       <c r="C84" t="s">
         <v>331</v>
       </c>
-      <c r="F84" s="18"/>
+      <c r="F84" s="14"/>
     </row>
     <row r="85" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>178</v>
       </c>
-      <c r="B85" s="16">
+      <c r="B85" s="12">
         <v>44229</v>
       </c>
       <c r="C85" t="s">
         <v>331</v>
       </c>
-      <c r="F85" s="18"/>
+      <c r="F85" s="14"/>
     </row>
     <row r="86" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>179</v>
       </c>
-      <c r="B86" s="16">
+      <c r="B86" s="12">
         <v>44229</v>
       </c>
       <c r="C86" t="s">
         <v>331</v>
       </c>
-      <c r="F86" s="18"/>
+      <c r="F86" s="14"/>
     </row>
     <row r="87" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>180</v>
       </c>
-      <c r="B87" s="16">
+      <c r="B87" s="12">
         <v>44229</v>
       </c>
       <c r="C87" t="s">
         <v>331</v>
       </c>
-      <c r="F87" s="18"/>
+      <c r="F87" s="14"/>
     </row>
     <row r="88" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>181</v>
       </c>
-      <c r="B88" s="16">
+      <c r="B88" s="12">
         <v>44229</v>
       </c>
       <c r="C88" t="s">
         <v>331</v>
       </c>
-      <c r="F88" s="18"/>
+      <c r="F88" s="14"/>
     </row>
     <row r="89" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>182</v>
       </c>
-      <c r="B89" s="16">
+      <c r="B89" s="12">
         <v>44258</v>
       </c>
       <c r="C89" t="s">
         <v>331</v>
       </c>
-      <c r="F89" s="18"/>
+      <c r="F89" s="14"/>
     </row>
     <row r="90" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>183</v>
       </c>
-      <c r="B90" s="16">
+      <c r="B90" s="12">
         <v>44229</v>
       </c>
       <c r="C90" t="s">
         <v>331</v>
       </c>
-      <c r="F90" s="18"/>
+      <c r="F90" s="14"/>
     </row>
     <row r="91" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>184</v>
       </c>
-      <c r="B91" s="16">
+      <c r="B91" s="12">
         <v>44197</v>
       </c>
       <c r="C91" t="s">
         <v>331</v>
       </c>
-      <c r="F91" s="18"/>
+      <c r="F91" s="14"/>
     </row>
     <row r="92" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>185</v>
       </c>
-      <c r="B92" s="16">
+      <c r="B92" s="12">
         <v>44197</v>
       </c>
       <c r="C92" t="s">
         <v>331</v>
       </c>
-      <c r="F92" s="18"/>
+      <c r="F92" s="14"/>
     </row>
     <row r="93" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>186</v>
       </c>
-      <c r="B93" s="16">
+      <c r="B93" s="12">
         <v>44229</v>
       </c>
       <c r="C93" t="s">
         <v>331</v>
       </c>
-      <c r="F93" s="18"/>
+      <c r="F93" s="14"/>
     </row>
     <row r="94" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>187</v>
       </c>
-      <c r="B94" s="16">
+      <c r="B94" s="12">
         <v>44258</v>
       </c>
       <c r="C94" t="s">
         <v>331</v>
       </c>
-      <c r="F94" s="18"/>
+      <c r="F94" s="14"/>
     </row>
     <row r="95" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>188</v>
       </c>
-      <c r="B95" s="16">
+      <c r="B95" s="12">
         <v>44229</v>
       </c>
       <c r="C95" t="s">
         <v>331</v>
       </c>
-      <c r="F95" s="18"/>
+      <c r="F95" s="14"/>
     </row>
     <row r="96" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>189</v>
       </c>
-      <c r="B96" s="16">
+      <c r="B96" s="12">
         <v>44258</v>
       </c>
       <c r="C96" t="s">
         <v>331</v>
       </c>
-      <c r="F96" s="18"/>
+      <c r="F96" s="14"/>
     </row>
     <row r="97" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
@@ -3458,7 +3461,7 @@
       <c r="C97" t="s">
         <v>90</v>
       </c>
-      <c r="F97" s="18"/>
+      <c r="F97" s="14"/>
     </row>
     <row r="98" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
@@ -3470,7 +3473,7 @@
       <c r="C98" t="s">
         <v>334</v>
       </c>
-      <c r="F98" s="18"/>
+      <c r="F98" s="14"/>
     </row>
     <row r="99" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
@@ -3482,7 +3485,7 @@
       <c r="C99" t="s">
         <v>90</v>
       </c>
-      <c r="F99" s="18"/>
+      <c r="F99" s="14"/>
     </row>
     <row r="100" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
@@ -3494,7 +3497,7 @@
       <c r="C100" t="s">
         <v>335</v>
       </c>
-      <c r="F100" s="18"/>
+      <c r="F100" s="14"/>
     </row>
     <row r="101" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
@@ -3506,7 +3509,7 @@
       <c r="C101" t="s">
         <v>335</v>
       </c>
-      <c r="F101" s="18"/>
+      <c r="F101" s="14"/>
     </row>
     <row r="102" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
@@ -3518,7 +3521,7 @@
       <c r="C102" t="s">
         <v>335</v>
       </c>
-      <c r="F102" s="18"/>
+      <c r="F102" s="14"/>
     </row>
     <row r="103" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
@@ -3530,7 +3533,7 @@
       <c r="C103" t="s">
         <v>335</v>
       </c>
-      <c r="F103" s="18"/>
+      <c r="F103" s="14"/>
     </row>
     <row r="104" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
@@ -3542,7 +3545,7 @@
       <c r="C104" t="s">
         <v>335</v>
       </c>
-      <c r="F104" s="18"/>
+      <c r="F104" s="14"/>
     </row>
     <row r="105" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
@@ -3554,7 +3557,7 @@
       <c r="C105" t="s">
         <v>335</v>
       </c>
-      <c r="F105" s="18"/>
+      <c r="F105" s="14"/>
     </row>
     <row r="106" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
@@ -3566,7 +3569,7 @@
       <c r="C106" t="s">
         <v>335</v>
       </c>
-      <c r="F106" s="18"/>
+      <c r="F106" s="14"/>
     </row>
     <row r="107" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
@@ -3578,7 +3581,7 @@
       <c r="C107" t="s">
         <v>335</v>
       </c>
-      <c r="F107" s="18"/>
+      <c r="F107" s="14"/>
     </row>
     <row r="108" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
@@ -3590,7 +3593,7 @@
       <c r="C108" t="s">
         <v>335</v>
       </c>
-      <c r="F108" s="18"/>
+      <c r="F108" s="14"/>
     </row>
     <row r="109" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -3602,7 +3605,7 @@
       <c r="C109" t="s">
         <v>335</v>
       </c>
-      <c r="F109" s="18"/>
+      <c r="F109" s="14"/>
     </row>
     <row r="110" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
@@ -3614,7 +3617,7 @@
       <c r="C110" t="s">
         <v>335</v>
       </c>
-      <c r="F110" s="18"/>
+      <c r="F110" s="14"/>
     </row>
     <row r="111" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -3626,7 +3629,7 @@
       <c r="C111" t="s">
         <v>335</v>
       </c>
-      <c r="F111" s="18"/>
+      <c r="F111" s="14"/>
     </row>
     <row r="112" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -3638,7 +3641,7 @@
       <c r="C112" t="s">
         <v>335</v>
       </c>
-      <c r="F112" s="18"/>
+      <c r="F112" s="14"/>
     </row>
     <row r="113" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
@@ -3650,7 +3653,7 @@
       <c r="C113" t="s">
         <v>335</v>
       </c>
-      <c r="F113" s="18"/>
+      <c r="F113" s="14"/>
     </row>
     <row r="114" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
@@ -3662,7 +3665,7 @@
       <c r="C114" t="s">
         <v>335</v>
       </c>
-      <c r="F114" s="18"/>
+      <c r="F114" s="14"/>
     </row>
     <row r="115" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
@@ -3674,7 +3677,7 @@
       <c r="C115" t="s">
         <v>335</v>
       </c>
-      <c r="F115" s="18"/>
+      <c r="F115" s="14"/>
     </row>
     <row r="116" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
@@ -3686,7 +3689,7 @@
       <c r="C116" t="s">
         <v>339</v>
       </c>
-      <c r="F116" s="18"/>
+      <c r="F116" s="14"/>
     </row>
     <row r="117" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
@@ -3698,7 +3701,7 @@
       <c r="C117" t="s">
         <v>331</v>
       </c>
-      <c r="F117" s="18"/>
+      <c r="F117" s="14"/>
     </row>
     <row r="118" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
@@ -3710,7 +3713,7 @@
       <c r="C118" t="s">
         <v>338</v>
       </c>
-      <c r="F118" s="18"/>
+      <c r="F118" s="14"/>
     </row>
     <row r="119" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
@@ -3722,7 +3725,7 @@
       <c r="C119" t="s">
         <v>339</v>
       </c>
-      <c r="F119" s="18"/>
+      <c r="F119" s="14"/>
     </row>
     <row r="120" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
@@ -3734,7 +3737,7 @@
       <c r="C120" t="s">
         <v>342</v>
       </c>
-      <c r="F120" s="18"/>
+      <c r="F120" s="14"/>
     </row>
     <row r="121" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
@@ -3746,7 +3749,7 @@
       <c r="C121" t="s">
         <v>342</v>
       </c>
-      <c r="F121" s="18"/>
+      <c r="F121" s="14"/>
     </row>
     <row r="122" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
@@ -3758,7 +3761,7 @@
       <c r="C122" t="s">
         <v>334</v>
       </c>
-      <c r="F122" s="18"/>
+      <c r="F122" s="14"/>
     </row>
     <row r="123" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
@@ -3770,7 +3773,7 @@
       <c r="C123" t="s">
         <v>334</v>
       </c>
-      <c r="F123" s="18"/>
+      <c r="F123" s="14"/>
     </row>
     <row r="124" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
@@ -3782,7 +3785,7 @@
       <c r="C124" t="s">
         <v>340</v>
       </c>
-      <c r="F124" s="18"/>
+      <c r="F124" s="14"/>
     </row>
     <row r="125" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
@@ -3794,7 +3797,7 @@
       <c r="C125" t="s">
         <v>340</v>
       </c>
-      <c r="F125" s="18"/>
+      <c r="F125" s="14"/>
     </row>
     <row r="126" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
@@ -3806,7 +3809,7 @@
       <c r="C126" t="s">
         <v>342</v>
       </c>
-      <c r="F126" s="18"/>
+      <c r="F126" s="14"/>
     </row>
     <row r="127" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
@@ -3818,7 +3821,7 @@
       <c r="C127" t="s">
         <v>342</v>
       </c>
-      <c r="F127" s="18"/>
+      <c r="F127" s="14"/>
     </row>
     <row r="128" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
@@ -3830,7 +3833,7 @@
       <c r="C128" t="s">
         <v>342</v>
       </c>
-      <c r="F128" s="18"/>
+      <c r="F128" s="14"/>
     </row>
     <row r="129" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
@@ -3842,7 +3845,7 @@
       <c r="C129" t="s">
         <v>340</v>
       </c>
-      <c r="F129" s="18"/>
+      <c r="F129" s="14"/>
     </row>
     <row r="130" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
@@ -3854,7 +3857,7 @@
       <c r="C130" t="s">
         <v>342</v>
       </c>
-      <c r="F130" s="18"/>
+      <c r="F130" s="14"/>
     </row>
     <row r="131" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
@@ -3866,7 +3869,7 @@
       <c r="C131" t="s">
         <v>338</v>
       </c>
-      <c r="F131" s="18"/>
+      <c r="F131" s="14"/>
     </row>
     <row r="132" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
@@ -3878,7 +3881,7 @@
       <c r="C132" t="s">
         <v>340</v>
       </c>
-      <c r="F132" s="18"/>
+      <c r="F132" s="14"/>
     </row>
     <row r="133" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
@@ -3890,7 +3893,7 @@
       <c r="C133" t="s">
         <v>335</v>
       </c>
-      <c r="F133" s="18"/>
+      <c r="F133" s="14"/>
     </row>
     <row r="134" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
@@ -3902,7 +3905,7 @@
       <c r="C134" t="s">
         <v>335</v>
       </c>
-      <c r="F134" s="18"/>
+      <c r="F134" s="14"/>
     </row>
     <row r="135" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
@@ -3914,7 +3917,7 @@
       <c r="C135" t="s">
         <v>335</v>
       </c>
-      <c r="F135" s="18"/>
+      <c r="F135" s="14"/>
     </row>
     <row r="136" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
@@ -3926,7 +3929,7 @@
       <c r="C136" t="s">
         <v>335</v>
       </c>
-      <c r="F136" s="18"/>
+      <c r="F136" s="14"/>
     </row>
     <row r="137" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
@@ -3938,7 +3941,7 @@
       <c r="C137" t="s">
         <v>335</v>
       </c>
-      <c r="F137" s="18"/>
+      <c r="F137" s="14"/>
     </row>
     <row r="138" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
@@ -3950,7 +3953,7 @@
       <c r="C138" t="s">
         <v>90</v>
       </c>
-      <c r="F138" s="18"/>
+      <c r="F138" s="14"/>
     </row>
     <row r="139" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
@@ -3962,7 +3965,7 @@
       <c r="C139" t="s">
         <v>342</v>
       </c>
-      <c r="F139" s="18"/>
+      <c r="F139" s="14"/>
     </row>
     <row r="140" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
@@ -3974,7 +3977,7 @@
       <c r="C140" t="s">
         <v>342</v>
       </c>
-      <c r="F140" s="18"/>
+      <c r="F140" s="14"/>
     </row>
     <row r="141" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
@@ -3986,7 +3989,7 @@
       <c r="C141" t="s">
         <v>342</v>
       </c>
-      <c r="F141" s="18"/>
+      <c r="F141" s="14"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
@@ -3998,19 +4001,19 @@
       <c r="C142" t="s">
         <v>332</v>
       </c>
-      <c r="F142" s="21"/>
+      <c r="F142" s="17"/>
     </row>
     <row r="143" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>236</v>
       </c>
-      <c r="B143" s="16">
+      <c r="B143" s="12">
         <v>44197</v>
       </c>
       <c r="C143" t="s">
         <v>331</v>
       </c>
-      <c r="F143" s="18"/>
+      <c r="F143" s="14"/>
     </row>
     <row r="144" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
@@ -4022,7 +4025,7 @@
       <c r="C144" t="s">
         <v>333</v>
       </c>
-      <c r="F144" s="18"/>
+      <c r="F144" s="14"/>
     </row>
     <row r="145" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
@@ -4034,7 +4037,7 @@
       <c r="C145" t="s">
         <v>343</v>
       </c>
-      <c r="F145" s="18"/>
+      <c r="F145" s="14"/>
     </row>
     <row r="146" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
@@ -4046,7 +4049,7 @@
       <c r="C146" t="s">
         <v>338</v>
       </c>
-      <c r="F146" s="18"/>
+      <c r="F146" s="14"/>
     </row>
     <row r="147" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
@@ -4058,7 +4061,7 @@
       <c r="C147" t="s">
         <v>336</v>
       </c>
-      <c r="F147" s="18"/>
+      <c r="F147" s="14"/>
     </row>
     <row r="148" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
@@ -4070,7 +4073,7 @@
       <c r="C148" t="s">
         <v>335</v>
       </c>
-      <c r="F148" s="18"/>
+      <c r="F148" s="14"/>
     </row>
     <row r="149" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
@@ -4082,7 +4085,7 @@
       <c r="C149" t="s">
         <v>335</v>
       </c>
-      <c r="F149" s="18"/>
+      <c r="F149" s="14"/>
     </row>
     <row r="150" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
@@ -4094,7 +4097,7 @@
       <c r="C150" t="s">
         <v>335</v>
       </c>
-      <c r="F150" s="18"/>
+      <c r="F150" s="14"/>
     </row>
     <row r="151" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
@@ -4106,7 +4109,7 @@
       <c r="C151" t="s">
         <v>335</v>
       </c>
-      <c r="F151" s="18"/>
+      <c r="F151" s="14"/>
     </row>
     <row r="152" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
@@ -4118,7 +4121,7 @@
       <c r="C152" t="s">
         <v>335</v>
       </c>
-      <c r="F152" s="18"/>
+      <c r="F152" s="14"/>
     </row>
     <row r="153" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
@@ -4130,7 +4133,7 @@
       <c r="C153" t="s">
         <v>335</v>
       </c>
-      <c r="F153" s="18"/>
+      <c r="F153" s="14"/>
     </row>
     <row r="154" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
@@ -4142,7 +4145,7 @@
       <c r="C154" t="s">
         <v>335</v>
       </c>
-      <c r="F154" s="18"/>
+      <c r="F154" s="14"/>
     </row>
     <row r="155" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
@@ -4154,7 +4157,7 @@
       <c r="C155" t="s">
         <v>335</v>
       </c>
-      <c r="F155" s="18"/>
+      <c r="F155" s="14"/>
     </row>
     <row r="156" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
@@ -4166,7 +4169,7 @@
       <c r="C156" t="s">
         <v>335</v>
       </c>
-      <c r="F156" s="18"/>
+      <c r="F156" s="14"/>
     </row>
     <row r="157" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
@@ -4178,7 +4181,7 @@
       <c r="C157" t="s">
         <v>335</v>
       </c>
-      <c r="F157" s="18"/>
+      <c r="F157" s="14"/>
     </row>
     <row r="158" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
@@ -4190,7 +4193,7 @@
       <c r="C158" t="s">
         <v>335</v>
       </c>
-      <c r="F158" s="18"/>
+      <c r="F158" s="14"/>
     </row>
     <row r="159" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
@@ -4202,7 +4205,7 @@
       <c r="C159" t="s">
         <v>335</v>
       </c>
-      <c r="F159" s="18"/>
+      <c r="F159" s="14"/>
     </row>
     <row r="160" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
@@ -4214,7 +4217,7 @@
       <c r="C160" t="s">
         <v>335</v>
       </c>
-      <c r="F160" s="18"/>
+      <c r="F160" s="14"/>
     </row>
     <row r="161" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
@@ -4226,7 +4229,7 @@
       <c r="C161" t="s">
         <v>335</v>
       </c>
-      <c r="F161" s="18"/>
+      <c r="F161" s="14"/>
     </row>
     <row r="162" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
@@ -4238,7 +4241,7 @@
       <c r="C162" t="s">
         <v>335</v>
       </c>
-      <c r="F162" s="18"/>
+      <c r="F162" s="14"/>
     </row>
     <row r="163" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
@@ -4250,7 +4253,7 @@
       <c r="C163" t="s">
         <v>335</v>
       </c>
-      <c r="F163" s="18"/>
+      <c r="F163" s="14"/>
     </row>
     <row r="164" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
@@ -4262,7 +4265,7 @@
       <c r="C164" t="s">
         <v>335</v>
       </c>
-      <c r="F164" s="18"/>
+      <c r="F164" s="14"/>
     </row>
     <row r="165" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
@@ -4274,7 +4277,7 @@
       <c r="C165" t="s">
         <v>335</v>
       </c>
-      <c r="F165" s="18"/>
+      <c r="F165" s="14"/>
     </row>
     <row r="166" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
@@ -4286,7 +4289,7 @@
       <c r="C166" t="s">
         <v>335</v>
       </c>
-      <c r="F166" s="18"/>
+      <c r="F166" s="14"/>
     </row>
     <row r="167" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
@@ -4298,7 +4301,7 @@
       <c r="C167" t="s">
         <v>335</v>
       </c>
-      <c r="F167" s="18"/>
+      <c r="F167" s="14"/>
     </row>
     <row r="168" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
@@ -4310,7 +4313,7 @@
       <c r="C168" t="s">
         <v>335</v>
       </c>
-      <c r="F168" s="18"/>
+      <c r="F168" s="14"/>
     </row>
     <row r="169" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
@@ -4322,7 +4325,7 @@
       <c r="C169" t="s">
         <v>335</v>
       </c>
-      <c r="F169" s="18"/>
+      <c r="F169" s="14"/>
     </row>
     <row r="170" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
@@ -4334,7 +4337,7 @@
       <c r="C170" t="s">
         <v>335</v>
       </c>
-      <c r="F170" s="18"/>
+      <c r="F170" s="14"/>
     </row>
     <row r="171" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
@@ -4346,7 +4349,7 @@
       <c r="C171" t="s">
         <v>335</v>
       </c>
-      <c r="F171" s="18"/>
+      <c r="F171" s="14"/>
     </row>
     <row r="172" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
@@ -4358,7 +4361,7 @@
       <c r="C172" t="s">
         <v>335</v>
       </c>
-      <c r="F172" s="18"/>
+      <c r="F172" s="14"/>
     </row>
     <row r="173" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
@@ -4370,7 +4373,7 @@
       <c r="C173" t="s">
         <v>335</v>
       </c>
-      <c r="F173" s="18"/>
+      <c r="F173" s="14"/>
     </row>
     <row r="174" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
@@ -4382,7 +4385,7 @@
       <c r="C174" t="s">
         <v>342</v>
       </c>
-      <c r="F174" s="18"/>
+      <c r="F174" s="14"/>
     </row>
     <row r="175" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
@@ -4394,7 +4397,7 @@
       <c r="C175" t="s">
         <v>335</v>
       </c>
-      <c r="F175" s="18"/>
+      <c r="F175" s="14"/>
     </row>
     <row r="176" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
@@ -4406,7 +4409,7 @@
       <c r="C176" t="s">
         <v>335</v>
       </c>
-      <c r="F176" s="18"/>
+      <c r="F176" s="14"/>
     </row>
     <row r="177" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
@@ -4418,7 +4421,7 @@
       <c r="C177" t="s">
         <v>335</v>
       </c>
-      <c r="F177" s="18"/>
+      <c r="F177" s="14"/>
     </row>
     <row r="178" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
@@ -4430,7 +4433,7 @@
       <c r="C178" t="s">
         <v>335</v>
       </c>
-      <c r="F178" s="18"/>
+      <c r="F178" s="14"/>
     </row>
     <row r="179" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
@@ -4442,7 +4445,7 @@
       <c r="C179" t="s">
         <v>335</v>
       </c>
-      <c r="F179" s="18"/>
+      <c r="F179" s="14"/>
     </row>
     <row r="180" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
@@ -4454,7 +4457,7 @@
       <c r="C180" t="s">
         <v>335</v>
       </c>
-      <c r="F180" s="18"/>
+      <c r="F180" s="14"/>
     </row>
     <row r="181" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
@@ -4466,7 +4469,7 @@
       <c r="C181" t="s">
         <v>335</v>
       </c>
-      <c r="F181" s="18"/>
+      <c r="F181" s="14"/>
     </row>
     <row r="182" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
@@ -4478,7 +4481,7 @@
       <c r="C182" t="s">
         <v>335</v>
       </c>
-      <c r="F182" s="18"/>
+      <c r="F182" s="14"/>
     </row>
     <row r="183" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
@@ -4490,7 +4493,7 @@
       <c r="C183" t="s">
         <v>335</v>
       </c>
-      <c r="F183" s="18"/>
+      <c r="F183" s="14"/>
     </row>
     <row r="184" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
@@ -4502,7 +4505,7 @@
       <c r="C184" t="s">
         <v>335</v>
       </c>
-      <c r="F184" s="18"/>
+      <c r="F184" s="14"/>
     </row>
     <row r="185" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
@@ -4514,7 +4517,7 @@
       <c r="C185" t="s">
         <v>335</v>
       </c>
-      <c r="F185" s="18"/>
+      <c r="F185" s="14"/>
     </row>
     <row r="186" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
@@ -4526,7 +4529,7 @@
       <c r="C186" t="s">
         <v>335</v>
       </c>
-      <c r="F186" s="18"/>
+      <c r="F186" s="14"/>
     </row>
     <row r="187" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
@@ -4538,7 +4541,7 @@
       <c r="C187" t="s">
         <v>335</v>
       </c>
-      <c r="F187" s="18"/>
+      <c r="F187" s="14"/>
     </row>
     <row r="188" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
@@ -4550,7 +4553,7 @@
       <c r="C188" t="s">
         <v>335</v>
       </c>
-      <c r="F188" s="18"/>
+      <c r="F188" s="14"/>
     </row>
     <row r="189" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
@@ -4562,7 +4565,7 @@
       <c r="C189" t="s">
         <v>335</v>
       </c>
-      <c r="F189" s="18"/>
+      <c r="F189" s="14"/>
     </row>
     <row r="190" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
@@ -4574,7 +4577,7 @@
       <c r="C190" t="s">
         <v>335</v>
       </c>
-      <c r="F190" s="18"/>
+      <c r="F190" s="14"/>
     </row>
     <row r="191" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
@@ -4586,7 +4589,7 @@
       <c r="C191" t="s">
         <v>335</v>
       </c>
-      <c r="F191" s="18"/>
+      <c r="F191" s="14"/>
     </row>
     <row r="192" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
@@ -4598,7 +4601,7 @@
       <c r="C192" t="s">
         <v>340</v>
       </c>
-      <c r="F192" s="18"/>
+      <c r="F192" s="14"/>
     </row>
     <row r="193" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
@@ -4610,7 +4613,7 @@
       <c r="C193" t="s">
         <v>335</v>
       </c>
-      <c r="F193" s="18"/>
+      <c r="F193" s="14"/>
     </row>
     <row r="194" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
@@ -4622,7 +4625,7 @@
       <c r="C194" t="s">
         <v>335</v>
       </c>
-      <c r="F194" s="18"/>
+      <c r="F194" s="14"/>
     </row>
     <row r="195" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
@@ -4634,7 +4637,7 @@
       <c r="C195" t="s">
         <v>335</v>
       </c>
-      <c r="F195" s="18"/>
+      <c r="F195" s="14"/>
     </row>
     <row r="196" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
@@ -4646,7 +4649,7 @@
       <c r="C196" t="s">
         <v>335</v>
       </c>
-      <c r="F196" s="18"/>
+      <c r="F196" s="14"/>
     </row>
     <row r="197" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
@@ -4658,7 +4661,7 @@
       <c r="C197" t="s">
         <v>335</v>
       </c>
-      <c r="F197" s="18"/>
+      <c r="F197" s="14"/>
     </row>
     <row r="198" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
@@ -4670,7 +4673,7 @@
       <c r="C198" t="s">
         <v>335</v>
       </c>
-      <c r="F198" s="18"/>
+      <c r="F198" s="14"/>
     </row>
     <row r="199" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
@@ -4682,7 +4685,7 @@
       <c r="C199" t="s">
         <v>335</v>
       </c>
-      <c r="F199" s="18"/>
+      <c r="F199" s="14"/>
     </row>
     <row r="200" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
@@ -4694,7 +4697,7 @@
       <c r="C200" t="s">
         <v>335</v>
       </c>
-      <c r="F200" s="18"/>
+      <c r="F200" s="14"/>
     </row>
     <row r="201" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
@@ -4706,7 +4709,7 @@
       <c r="C201" t="s">
         <v>335</v>
       </c>
-      <c r="F201" s="18"/>
+      <c r="F201" s="14"/>
     </row>
     <row r="202" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
@@ -4718,7 +4721,7 @@
       <c r="C202" t="s">
         <v>335</v>
       </c>
-      <c r="F202" s="18"/>
+      <c r="F202" s="14"/>
     </row>
     <row r="203" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
@@ -4730,7 +4733,7 @@
       <c r="C203" t="s">
         <v>335</v>
       </c>
-      <c r="F203" s="18"/>
+      <c r="F203" s="14"/>
     </row>
     <row r="204" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
@@ -4742,7 +4745,7 @@
       <c r="C204" t="s">
         <v>335</v>
       </c>
-      <c r="F204" s="18"/>
+      <c r="F204" s="14"/>
     </row>
     <row r="205" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
@@ -4754,7 +4757,7 @@
       <c r="C205" t="s">
         <v>335</v>
       </c>
-      <c r="F205" s="18"/>
+      <c r="F205" s="14"/>
     </row>
     <row r="206" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
@@ -4766,7 +4769,7 @@
       <c r="C206" t="s">
         <v>335</v>
       </c>
-      <c r="F206" s="18"/>
+      <c r="F206" s="14"/>
     </row>
     <row r="207" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
@@ -4778,7 +4781,7 @@
       <c r="C207" t="s">
         <v>335</v>
       </c>
-      <c r="F207" s="18"/>
+      <c r="F207" s="14"/>
     </row>
     <row r="208" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
@@ -4790,7 +4793,7 @@
       <c r="C208" t="s">
         <v>335</v>
       </c>
-      <c r="F208" s="18"/>
+      <c r="F208" s="14"/>
     </row>
     <row r="209" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
@@ -4802,55 +4805,55 @@
       <c r="C209" t="s">
         <v>342</v>
       </c>
-      <c r="F209" s="18"/>
+      <c r="F209" s="14"/>
     </row>
     <row r="210" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>303</v>
       </c>
-      <c r="B210" s="16">
+      <c r="B210" s="12">
         <v>44229</v>
       </c>
       <c r="C210" t="s">
         <v>331</v>
       </c>
-      <c r="F210" s="18"/>
+      <c r="F210" s="14"/>
     </row>
     <row r="211" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>304</v>
       </c>
-      <c r="B211" s="16">
+      <c r="B211" s="12">
         <v>44229</v>
       </c>
       <c r="C211" t="s">
         <v>331</v>
       </c>
-      <c r="F211" s="18"/>
+      <c r="F211" s="14"/>
     </row>
     <row r="212" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>305</v>
       </c>
-      <c r="B212" s="16">
+      <c r="B212" s="12">
         <v>44197</v>
       </c>
       <c r="C212" t="s">
         <v>331</v>
       </c>
-      <c r="F212" s="18"/>
+      <c r="F212" s="14"/>
     </row>
     <row r="213" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>306</v>
       </c>
-      <c r="B213" s="16">
+      <c r="B213" s="12">
         <v>44197</v>
       </c>
       <c r="C213" t="s">
         <v>331</v>
       </c>
-      <c r="F213" s="18"/>
+      <c r="F213" s="14"/>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
@@ -4862,7 +4865,7 @@
       <c r="C214" t="s">
         <v>332</v>
       </c>
-      <c r="F214" s="21"/>
+      <c r="F214" s="17"/>
     </row>
     <row r="215" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
@@ -4874,7 +4877,7 @@
       <c r="C215" t="s">
         <v>333</v>
       </c>
-      <c r="F215" s="18"/>
+      <c r="F215" s="14"/>
     </row>
     <row r="216" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
@@ -4886,91 +4889,91 @@
       <c r="C216" t="s">
         <v>338</v>
       </c>
-      <c r="F216" s="18"/>
+      <c r="F216" s="14"/>
     </row>
     <row r="217" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>310</v>
       </c>
-      <c r="B217" s="16">
+      <c r="B217" s="12">
         <v>44197</v>
       </c>
       <c r="C217" t="s">
         <v>331</v>
       </c>
-      <c r="F217" s="18"/>
+      <c r="F217" s="14"/>
     </row>
     <row r="218" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>311</v>
       </c>
-      <c r="B218" s="16">
+      <c r="B218" s="12">
         <v>44229</v>
       </c>
       <c r="C218" t="s">
         <v>331</v>
       </c>
-      <c r="F218" s="18"/>
+      <c r="F218" s="14"/>
     </row>
     <row r="219" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>312</v>
       </c>
-      <c r="B219" s="16">
+      <c r="B219" s="12">
         <v>44229</v>
       </c>
       <c r="C219" t="s">
         <v>331</v>
       </c>
-      <c r="F219" s="18"/>
+      <c r="F219" s="14"/>
     </row>
     <row r="220" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>313</v>
       </c>
-      <c r="B220" s="16">
+      <c r="B220" s="12">
         <v>44197</v>
       </c>
       <c r="C220" t="s">
         <v>331</v>
       </c>
-      <c r="F220" s="18"/>
+      <c r="F220" s="14"/>
     </row>
     <row r="221" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>314</v>
       </c>
-      <c r="B221" s="16">
+      <c r="B221" s="12">
         <v>44229</v>
       </c>
       <c r="C221" t="s">
         <v>331</v>
       </c>
-      <c r="F221" s="18"/>
+      <c r="F221" s="14"/>
     </row>
     <row r="222" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>315</v>
       </c>
-      <c r="B222" s="16">
+      <c r="B222" s="12">
         <v>44229</v>
       </c>
       <c r="C222" t="s">
         <v>331</v>
       </c>
-      <c r="F222" s="18"/>
+      <c r="F222" s="14"/>
     </row>
     <row r="223" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>316</v>
       </c>
-      <c r="B223" s="16">
+      <c r="B223" s="12">
         <v>44197</v>
       </c>
       <c r="C223" t="s">
         <v>331</v>
       </c>
-      <c r="F223" s="18"/>
+      <c r="F223" s="14"/>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
@@ -4980,9 +4983,9 @@
         <v>326</v>
       </c>
       <c r="C224" t="s">
-        <v>332</v>
-      </c>
-      <c r="F224" s="21"/>
+        <v>353</v>
+      </c>
+      <c r="F224" s="17"/>
     </row>
     <row r="225" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
@@ -4994,31 +4997,31 @@
       <c r="C225" t="s">
         <v>344</v>
       </c>
-      <c r="F225" s="18"/>
+      <c r="F225" s="14"/>
     </row>
     <row r="226" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>319</v>
       </c>
-      <c r="B226" s="16">
+      <c r="B226" s="12">
         <v>44197</v>
       </c>
       <c r="C226" t="s">
         <v>331</v>
       </c>
-      <c r="F226" s="18"/>
+      <c r="F226" s="14"/>
     </row>
     <row r="227" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>320</v>
       </c>
-      <c r="B227" s="16">
+      <c r="B227" s="12">
         <v>44197</v>
       </c>
       <c r="C227" t="s">
         <v>331</v>
       </c>
-      <c r="F227" s="18"/>
+      <c r="F227" s="14"/>
     </row>
     <row r="228" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
@@ -5030,91 +5033,91 @@
       <c r="C228" t="s">
         <v>334</v>
       </c>
-      <c r="F228" s="18"/>
+      <c r="F228" s="14"/>
     </row>
     <row r="229" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>322</v>
       </c>
-      <c r="B229" s="16">
+      <c r="B229" s="12">
         <v>44197</v>
       </c>
       <c r="C229" t="s">
         <v>331</v>
       </c>
-      <c r="F229" s="18"/>
+      <c r="F229" s="14"/>
     </row>
     <row r="230" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>323</v>
       </c>
-      <c r="B230" s="16">
+      <c r="B230" s="12">
         <v>44197</v>
       </c>
       <c r="C230" t="s">
         <v>331</v>
       </c>
-      <c r="F230" s="18"/>
+      <c r="F230" s="14"/>
     </row>
     <row r="231" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>324</v>
       </c>
-      <c r="B231" s="16">
+      <c r="B231" s="12">
         <v>44197</v>
       </c>
       <c r="C231" t="s">
         <v>331</v>
       </c>
-      <c r="F231" s="18"/>
+      <c r="F231" s="14"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F232" s="21"/>
+      <c r="F232" s="17"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F233" s="21"/>
+      <c r="F233" s="17"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F234" s="21"/>
+      <c r="F234" s="17"/>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F235" s="21"/>
+      <c r="F235" s="17"/>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F236" s="21"/>
+      <c r="F236" s="17"/>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F237" s="21"/>
+      <c r="F237" s="17"/>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F238" s="21"/>
+      <c r="F238" s="17"/>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F239" s="21"/>
+      <c r="F239" s="17"/>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F240" s="21"/>
+      <c r="F240" s="17"/>
     </row>
     <row r="241" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F241" s="21"/>
+      <c r="F241" s="17"/>
     </row>
     <row r="242" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F242" s="21"/>
+      <c r="F242" s="17"/>
     </row>
     <row r="243" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F243" s="21"/>
+      <c r="F243" s="17"/>
     </row>
     <row r="244" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F244" s="21"/>
+      <c r="F244" s="17"/>
     </row>
     <row r="245" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F245" s="21"/>
+      <c r="F245" s="17"/>
     </row>
     <row r="246" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F246" s="21"/>
+      <c r="F246" s="17"/>
     </row>
     <row r="247" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F247" s="21"/>
+      <c r="F247" s="17"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C231" xr:uid="{64DB02A1-09DF-484C-B318-3F801E118F8E}">
@@ -5138,5 +5141,6 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ONAPonOpenshift-IssueTracker.xlsx
+++ b/ONAPonOpenshift-IssueTracker.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ONAP-Telus-Frankfruit\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\oom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E312E6-CBC8-437B-9AE4-38135CBC95F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC3C5528-CC17-42AD-B2BE-C25A69BC86DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{B7C4B8F9-F985-4717-81B0-9B1D4613E6F6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{B7C4B8F9-F985-4717-81B0-9B1D4613E6F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="pod-issues" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Estimated Date" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'pod-issues'!$A$1:$C$231</definedName>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="797" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="515">
   <si>
     <t>Component</t>
   </si>
@@ -1108,12 +1109,498 @@
   <si>
     <t>memory: 512Mi</t>
   </si>
+  <si>
+    <t>changed the image url</t>
+  </si>
+  <si>
+    <t>a1policymanagement</t>
+  </si>
+  <si>
+    <t>mariadb-galera</t>
+  </si>
+  <si>
+    <t>aaf</t>
+  </si>
+  <si>
+    <t>aai</t>
+  </si>
+  <si>
+    <t>appc</t>
+  </si>
+  <si>
+    <t>cds</t>
+  </si>
+  <si>
+    <t>clamp</t>
+  </si>
+  <si>
+    <t>cli</t>
+  </si>
+  <si>
+    <t>contrib</t>
+  </si>
+  <si>
+    <t>consul</t>
+  </si>
+  <si>
+    <t>dcaegen2</t>
+  </si>
+  <si>
+    <t>dcaemod</t>
+  </si>
+  <si>
+    <t>dmaap</t>
+  </si>
+  <si>
+    <t>esr</t>
+  </si>
+  <si>
+    <t>oof</t>
+  </si>
+  <si>
+    <t>msb</t>
+  </si>
+  <si>
+    <t>multicloud</t>
+  </si>
+  <si>
+    <t>nbi</t>
+  </si>
+  <si>
+    <t>robot</t>
+  </si>
+  <si>
+    <t>sdnc</t>
+  </si>
+  <si>
+    <t>so</t>
+  </si>
+  <si>
+    <t>uui</t>
+  </si>
+  <si>
+    <t>vfc</t>
+  </si>
+  <si>
+    <t>vid</t>
+  </si>
+  <si>
+    <t>vnfsdk</t>
+  </si>
+  <si>
+    <t>modeling</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>Component Name</t>
+  </si>
+  <si>
+    <t>Sub Component Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t>aaf-aaf-cass</t>
+  </si>
+  <si>
+    <t>aaf-aaf-cm</t>
+  </si>
+  <si>
+    <t>aaf-aaf-fs</t>
+  </si>
+  <si>
+    <t>aaf-aaf-gui</t>
+  </si>
+  <si>
+    <t>aaf-aaf-locate</t>
+  </si>
+  <si>
+    <t>aaf-aaf-oauth</t>
+  </si>
+  <si>
+    <t>aaf-aaf-service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaf-aaf-sms-quorumclient                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaf-aaf-sms-vault                              </t>
+  </si>
+  <si>
+    <t>aaf-aaf-sshsm-distcenter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aaf-aaf-sshsm-testca                      </t>
+  </si>
+  <si>
+    <t>cdc</t>
+  </si>
+  <si>
+    <t>COMPPONENT</t>
+  </si>
+  <si>
+    <t>SUB COMPPONENT</t>
+  </si>
+  <si>
+    <t>ISSUE</t>
+  </si>
+  <si>
+    <t>RESOLUTION</t>
+  </si>
+  <si>
+    <t>OWNERSHIP</t>
+  </si>
+  <si>
+    <t>DEPEDANCY / HELP</t>
+  </si>
+  <si>
+    <t>PLANNED TARGET DATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VPN </t>
+  </si>
+  <si>
+    <t>Dasrathi</t>
+  </si>
+  <si>
+    <t>Vamshi</t>
+  </si>
+  <si>
+    <t>STATUS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vid                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uui-server            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uui                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">vid-galera-0                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">modeling-etsicatalog   </t>
+  </si>
+  <si>
+    <t>modeling-etsicatalog-config-job</t>
+  </si>
+  <si>
+    <t>so-vnfm-adapter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so-vfc-adapter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">so-sdnc-adapter                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">so-request-db-adapter         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">so-sdc-controller            </t>
+  </si>
+  <si>
+    <t>so-openstack-adapter</t>
+  </si>
+  <si>
+    <t>so-oof-adapter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so-nssmf-adapter          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">so-monitoring               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">so-mariadb-config-job               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">so-etsi-nfvo-ns-lcm         </t>
+  </si>
+  <si>
+    <t>so-cnf-adapter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">so-catalog-db-adapter     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">so-bpmn-infra              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">so                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdc-wfd-fe      </t>
+  </si>
+  <si>
+    <t>sdc-wfd-be-workflow-init</t>
+  </si>
+  <si>
+    <t>sdc-wfd-be</t>
+  </si>
+  <si>
+    <t>sdc-onboarding-be-cassandra-init</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdc-fe           </t>
+  </si>
+  <si>
+    <t>sdc-cs-config-cassandra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdc-be-config-backend                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdc-be                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aai-babel        </t>
+  </si>
+  <si>
+    <t>aai-data-router</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aai-elasticsearch           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aai-graphadmin-create-db-schema     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aai-graphadmin  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aai-modelloader  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">aai-resources </t>
+  </si>
+  <si>
+    <t>aai-schema-service</t>
+  </si>
+  <si>
+    <t>aai-search-data</t>
+  </si>
+  <si>
+    <t>aai-sparky-be</t>
+  </si>
+  <si>
+    <t>aai-traversal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appc-cdt         </t>
+  </si>
+  <si>
+    <t>appc-dgbuilder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appc-db  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cds-blueprints-processor  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cds-command-executor   </t>
+  </si>
+  <si>
+    <t>cds-db</t>
+  </si>
+  <si>
+    <t>cds-py-executor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cds-sdc-listener            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cds-ui       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">contrib-ejbca      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">contrib-ejbca-config-config-job         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">contrib-netbox-app      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">contrib-netbox-app-provisioning     </t>
+  </si>
+  <si>
+    <t>contrib-netbox-nginx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">contrib-netbox-postgres  </t>
+  </si>
+  <si>
+    <t>msb-consul</t>
+  </si>
+  <si>
+    <t>dcaegen2-dcae-bootstrap</t>
+  </si>
+  <si>
+    <t>dcaegen2-dcae-config-binding-service</t>
+  </si>
+  <si>
+    <t>dcaegen2-dcae-dashboard</t>
+  </si>
+  <si>
+    <t>dcaegen2-dcae-deployment-handler</t>
+  </si>
+  <si>
+    <t>dcaegen2-dcae-healthcheck</t>
+  </si>
+  <si>
+    <t>dcaegen2-dcae-inventory-api</t>
+  </si>
+  <si>
+    <t>dcaegen2-dcae-policy-handler</t>
+  </si>
+  <si>
+    <t>dcaegen2-dcae-servicechange-handler</t>
+  </si>
+  <si>
+    <t>dmaap-bc</t>
+  </si>
+  <si>
+    <t>esr-gui</t>
+  </si>
+  <si>
+    <t>esr-server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oof-cmso-db-config-config-job       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oof-music  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oof-music-cassandra-job-config </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oof  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">msb-eag          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">msb-iag    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">multicloud       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">multicloud-azure     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">multicloud-k8s   </t>
+  </si>
+  <si>
+    <t>multicloud-k8s-etcd</t>
+  </si>
+  <si>
+    <t>multicloud-k8s-mongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">portal-widget        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">portal-sdk             </t>
+  </si>
+  <si>
+    <t>portal-db-config</t>
+  </si>
+  <si>
+    <t xml:space="preserve">portal-db   </t>
+  </si>
+  <si>
+    <t>portal-cassandra</t>
+  </si>
+  <si>
+    <t>portal-app</t>
+  </si>
+  <si>
+    <t xml:space="preserve">policy-xacml-pdp  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">policy-pap   </t>
+  </si>
+  <si>
+    <t>multicloud-pike</t>
+  </si>
+  <si>
+    <t>multicloud-starlingx</t>
+  </si>
+  <si>
+    <t>multicloud-vio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multicloud-windriver </t>
+  </si>
+  <si>
+    <t>policy-apex-pdp</t>
+  </si>
+  <si>
+    <t>policy-api</t>
+  </si>
+  <si>
+    <t>policy-distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">policy-drools-pdp-0                           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">policy-galera-config         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">policy-mariadb-0                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">msb-kube2msb        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">msb-discovery           </t>
+  </si>
+  <si>
+    <t xml:space="preserve">msb-consul             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oof-has-solver    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oof-has-reservation </t>
+  </si>
+  <si>
+    <t>oof-has-data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oof-has-controller    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oof-has-api     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oof-cmso-topology    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oof-cmso-ticketmgt </t>
+  </si>
+  <si>
+    <t>oof-cmso-service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oof-cmso-optimizer        </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1160,8 +1647,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF6888C9"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1180,8 +1673,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1213,11 +1712,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1244,6 +1756,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1256,18 +1780,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1584,27 +2112,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1382C774-4F26-437F-AAB7-528C241B0DBF}">
   <dimension ref="B1:E56"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="30.28515625" customWidth="1"/>
-    <col min="4" max="4" width="101.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="30.26953125" customWidth="1"/>
+    <col min="4" max="4" width="101.26953125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="21" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1618,8 +2146,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="2"/>
@@ -1630,8 +2158,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="12"/>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="18"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
         <v>7</v>
@@ -1640,8 +2168,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B5" s="12"/>
+    <row r="5" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B5" s="18"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
         <v>5</v>
@@ -1650,8 +2178,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="18" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="2" t="s">
@@ -1664,8 +2192,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="18"/>
       <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1676,8 +2204,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
+    <row r="8" spans="2:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="18"/>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
@@ -1688,8 +2216,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+    <row r="9" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B9" s="18" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="2"/>
@@ -1700,8 +2228,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
+    <row r="10" spans="2:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="18"/>
       <c r="C10" s="3" t="s">
         <v>16</v>
       </c>
@@ -1712,8 +2240,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B11" s="18"/>
       <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
@@ -1724,8 +2252,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="120" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
+    <row r="12" spans="2:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="18"/>
       <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
@@ -1736,8 +2264,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B13" s="14" t="s">
+    <row r="13" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -1750,8 +2278,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B14" s="20"/>
       <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1762,8 +2290,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="14"/>
+    <row r="15" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B15" s="20"/>
       <c r="C15" s="3" t="s">
         <v>28</v>
       </c>
@@ -1774,8 +2302,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
+    <row r="16" spans="2:5" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="20"/>
       <c r="C16" s="3" t="s">
         <v>30</v>
       </c>
@@ -1786,8 +2314,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="2:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="B17" s="15"/>
+    <row r="17" spans="2:5" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="21"/>
       <c r="C17" s="2" t="s">
         <v>31</v>
       </c>
@@ -1798,8 +2326,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="15"/>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" s="21"/>
       <c r="C18" s="2" t="s">
         <v>33</v>
       </c>
@@ -1810,8 +2338,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1824,8 +2352,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="12"/>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" s="18"/>
       <c r="C20" s="2" t="s">
         <v>38</v>
       </c>
@@ -1836,8 +2364,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="12"/>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" s="18"/>
       <c r="C21" s="2" t="s">
         <v>39</v>
       </c>
@@ -1848,8 +2376,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="12"/>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" s="18"/>
       <c r="C22" s="2" t="s">
         <v>41</v>
       </c>
@@ -1860,8 +2388,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="12"/>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" s="18"/>
       <c r="C23" s="2" t="s">
         <v>43</v>
       </c>
@@ -1872,8 +2400,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="12"/>
+    <row r="24" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B24" s="18"/>
       <c r="C24" s="2" t="s">
         <v>44</v>
       </c>
@@ -1884,8 +2412,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B25" s="12"/>
+    <row r="25" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B25" s="18"/>
       <c r="C25" s="2" t="s">
         <v>45</v>
       </c>
@@ -1896,8 +2424,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="12"/>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" s="18"/>
       <c r="C26" s="2" t="s">
         <v>47</v>
       </c>
@@ -1908,7 +2436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" ht="87" x14ac:dyDescent="0.35">
       <c r="B27" s="6" t="s">
         <v>49</v>
       </c>
@@ -1922,8 +2450,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="12" t="s">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28" s="18" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="2" t="s">
@@ -1936,8 +2464,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B29" s="12"/>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B29" s="18"/>
       <c r="C29" s="2" t="s">
         <v>55</v>
       </c>
@@ -1948,8 +2476,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="12"/>
+    <row r="30" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B30" s="18"/>
       <c r="C30" s="2" t="s">
         <v>57</v>
       </c>
@@ -1960,8 +2488,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="12"/>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B31" s="18"/>
       <c r="C31" s="2" t="s">
         <v>58</v>
       </c>
@@ -1972,8 +2500,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B32" s="12"/>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B32" s="18"/>
       <c r="C32" s="2" t="s">
         <v>59</v>
       </c>
@@ -1982,8 +2510,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B33" s="12"/>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B33" s="18"/>
       <c r="C33" s="2" t="s">
         <v>60</v>
       </c>
@@ -1992,8 +2520,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" s="12"/>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B34" s="18"/>
       <c r="C34" s="2" t="s">
         <v>61</v>
       </c>
@@ -2002,8 +2530,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B35" s="12"/>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B35" s="18"/>
       <c r="C35" s="2" t="s">
         <v>62</v>
       </c>
@@ -2012,8 +2540,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B36" s="12"/>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B36" s="18"/>
       <c r="C36" s="2" t="s">
         <v>63</v>
       </c>
@@ -2022,8 +2550,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="12"/>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B37" s="18"/>
       <c r="C37" s="2" t="s">
         <v>64</v>
       </c>
@@ -2034,8 +2562,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="12"/>
+    <row r="38" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B38" s="18"/>
       <c r="C38" s="2" t="s">
         <v>66</v>
       </c>
@@ -2046,8 +2574,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B39" s="12"/>
+    <row r="39" spans="2:5" ht="29" x14ac:dyDescent="0.35">
+      <c r="B39" s="18"/>
       <c r="C39" s="2" t="s">
         <v>67</v>
       </c>
@@ -2056,8 +2584,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="12" t="s">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B40" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C40" s="2" t="s">
@@ -2068,8 +2596,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="12"/>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B41" s="18"/>
       <c r="C41" s="2" t="s">
         <v>70</v>
       </c>
@@ -2078,8 +2606,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="12"/>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B42" s="18"/>
       <c r="C42" s="2" t="s">
         <v>71</v>
       </c>
@@ -2088,8 +2616,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="12"/>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B43" s="18"/>
       <c r="C43" s="2" t="s">
         <v>72</v>
       </c>
@@ -2098,8 +2626,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B44" s="12"/>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B44" s="18"/>
       <c r="C44" s="2" t="s">
         <v>73</v>
       </c>
@@ -2108,8 +2636,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B45" s="12"/>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B45" s="18"/>
       <c r="C45" s="2" t="s">
         <v>74</v>
       </c>
@@ -2118,8 +2646,8 @@
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="12"/>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B46" s="18"/>
       <c r="C46" s="2" t="s">
         <v>75</v>
       </c>
@@ -2128,8 +2656,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="12"/>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B47" s="18"/>
       <c r="C47" s="2" t="s">
         <v>76</v>
       </c>
@@ -2138,8 +2666,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B48" s="12"/>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B48" s="18"/>
       <c r="C48" s="2" t="s">
         <v>77</v>
       </c>
@@ -2148,8 +2676,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B49" s="12"/>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B49" s="18"/>
       <c r="C49" s="2" t="s">
         <v>78</v>
       </c>
@@ -2158,8 +2686,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="12"/>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B50" s="18"/>
       <c r="C50" s="2" t="s">
         <v>79</v>
       </c>
@@ -2170,8 +2698,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="12"/>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B51" s="18"/>
       <c r="C51" s="2" t="s">
         <v>81</v>
       </c>
@@ -2182,8 +2710,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B52" s="12"/>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B52" s="18"/>
       <c r="C52" s="2" t="s">
         <v>83</v>
       </c>
@@ -2194,8 +2722,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B53" s="12"/>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B53" s="18"/>
       <c r="C53" s="2" t="s">
         <v>84</v>
       </c>
@@ -2206,8 +2734,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B54" s="12"/>
+    <row r="54" spans="2:5" ht="58" x14ac:dyDescent="0.35">
+      <c r="B54" s="18"/>
       <c r="C54" s="2" t="s">
         <v>85</v>
       </c>
@@ -2218,8 +2746,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="12"/>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B55" s="18"/>
       <c r="C55" s="2" t="s">
         <v>49</v>
       </c>
@@ -2230,8 +2758,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B56" s="12"/>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B56" s="18"/>
       <c r="C56" s="2" t="s">
         <v>87</v>
       </c>
@@ -2263,58 +2791,58 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A79" sqref="A79:A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="53.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="13" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="16">
+      <c r="B2" s="12">
         <v>44197</v>
       </c>
       <c r="C2" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="12">
         <v>44197</v>
       </c>
       <c r="C3" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>97</v>
       </c>
@@ -2327,57 +2855,57 @@
       <c r="D4" t="s">
         <v>345</v>
       </c>
-      <c r="F4" s="21"/>
-    </row>
-    <row r="5" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>98</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="12">
         <v>44197</v>
       </c>
       <c r="C5" t="s">
         <v>331</v>
       </c>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="12">
         <v>44197</v>
       </c>
       <c r="C6" t="s">
         <v>331</v>
       </c>
-      <c r="F6" s="18"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="12">
         <v>44197</v>
       </c>
       <c r="C7" t="s">
         <v>331</v>
       </c>
-      <c r="F7" s="18"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>101</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="12">
         <v>44197</v>
       </c>
       <c r="C8" t="s">
         <v>331</v>
       </c>
-      <c r="F8" s="18"/>
-    </row>
-    <row r="9" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" ht="101.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -2387,60 +2915,60 @@
       <c r="C9" t="s">
         <v>332</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="15" t="s">
         <v>346</v>
       </c>
-      <c r="F9" s="21"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>103</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="12">
         <v>44197</v>
       </c>
       <c r="C10" t="s">
         <v>331</v>
       </c>
-      <c r="F10" s="18"/>
-    </row>
-    <row r="11" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="12">
         <v>44197</v>
       </c>
       <c r="C11" t="s">
         <v>331</v>
       </c>
-      <c r="F11" s="18"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>105</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="12">
         <v>44197</v>
       </c>
       <c r="C12" t="s">
         <v>331</v>
       </c>
-      <c r="F12" s="18"/>
-    </row>
-    <row r="13" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="12">
         <v>44229</v>
       </c>
       <c r="C13" t="s">
         <v>331</v>
       </c>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>107</v>
       </c>
@@ -2450,9 +2978,9 @@
       <c r="C14" t="s">
         <v>333</v>
       </c>
-      <c r="F14" s="18"/>
-    </row>
-    <row r="15" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>108</v>
       </c>
@@ -2462,21 +2990,21 @@
       <c r="C15" t="s">
         <v>333</v>
       </c>
-      <c r="F15" s="18"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="12">
         <v>44229</v>
       </c>
       <c r="C16" t="s">
         <v>331</v>
       </c>
-      <c r="F16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>110</v>
       </c>
@@ -2486,21 +3014,21 @@
       <c r="C17" t="s">
         <v>334</v>
       </c>
-      <c r="F17" s="18"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="12">
         <v>44229</v>
       </c>
       <c r="C18" t="s">
         <v>331</v>
       </c>
-      <c r="F18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" ht="87" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>112</v>
       </c>
@@ -2510,15 +3038,15 @@
       <c r="C19" t="s">
         <v>332</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>113</v>
       </c>
@@ -2528,9 +3056,9 @@
       <c r="C20" t="s">
         <v>335</v>
       </c>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>114</v>
       </c>
@@ -2540,12 +3068,12 @@
       <c r="C21" t="s">
         <v>335</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="14"/>
       <c r="G21" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>115</v>
       </c>
@@ -2555,12 +3083,12 @@
       <c r="C22" t="s">
         <v>335</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="14"/>
       <c r="G22" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>116</v>
       </c>
@@ -2570,9 +3098,9 @@
       <c r="C23" t="s">
         <v>335</v>
       </c>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>117</v>
       </c>
@@ -2582,9 +3110,9 @@
       <c r="C24" t="s">
         <v>335</v>
       </c>
-      <c r="F24" s="18"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>118</v>
       </c>
@@ -2594,9 +3122,9 @@
       <c r="C25" t="s">
         <v>335</v>
       </c>
-      <c r="F25" s="18"/>
-    </row>
-    <row r="26" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>119</v>
       </c>
@@ -2606,9 +3134,9 @@
       <c r="C26" t="s">
         <v>335</v>
       </c>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>120</v>
       </c>
@@ -2618,9 +3146,9 @@
       <c r="C27" t="s">
         <v>335</v>
       </c>
-      <c r="F27" s="18"/>
-    </row>
-    <row r="28" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>121</v>
       </c>
@@ -2630,9 +3158,9 @@
       <c r="C28" t="s">
         <v>335</v>
       </c>
-      <c r="F28" s="18"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>122</v>
       </c>
@@ -2642,9 +3170,9 @@
       <c r="C29" t="s">
         <v>335</v>
       </c>
-      <c r="F29" s="18"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>123</v>
       </c>
@@ -2654,9 +3182,9 @@
       <c r="C30" t="s">
         <v>335</v>
       </c>
-      <c r="F30" s="18"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>124</v>
       </c>
@@ -2666,9 +3194,9 @@
       <c r="C31" t="s">
         <v>335</v>
       </c>
-      <c r="F31" s="18"/>
-    </row>
-    <row r="32" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -2678,9 +3206,9 @@
       <c r="C32" t="s">
         <v>335</v>
       </c>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="33" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>126</v>
       </c>
@@ -2690,9 +3218,9 @@
       <c r="C33" t="s">
         <v>335</v>
       </c>
-      <c r="F33" s="18"/>
-    </row>
-    <row r="34" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>127</v>
       </c>
@@ -2702,9 +3230,9 @@
       <c r="C34" t="s">
         <v>335</v>
       </c>
-      <c r="F34" s="18"/>
-    </row>
-    <row r="35" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>128</v>
       </c>
@@ -2714,21 +3242,21 @@
       <c r="C35" t="s">
         <v>334</v>
       </c>
-      <c r="F35" s="18"/>
-    </row>
-    <row r="36" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="12">
         <v>44229</v>
       </c>
       <c r="C36" t="s">
         <v>331</v>
       </c>
-      <c r="F36" s="18"/>
-    </row>
-    <row r="37" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>130</v>
       </c>
@@ -2738,33 +3266,33 @@
       <c r="C37" t="s">
         <v>334</v>
       </c>
-      <c r="F37" s="18"/>
-    </row>
-    <row r="38" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>131</v>
       </c>
-      <c r="B38" s="16">
+      <c r="B38" s="12">
         <v>44229</v>
       </c>
       <c r="C38" t="s">
         <v>331</v>
       </c>
-      <c r="F38" s="18"/>
-    </row>
-    <row r="39" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>132</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B39" s="12">
         <v>44229</v>
       </c>
       <c r="C39" t="s">
         <v>331</v>
       </c>
-      <c r="F39" s="18"/>
-    </row>
-    <row r="40" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>133</v>
       </c>
@@ -2774,9 +3302,9 @@
       <c r="C40" t="s">
         <v>334</v>
       </c>
-      <c r="F40" s="18"/>
-    </row>
-    <row r="41" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>134</v>
       </c>
@@ -2786,33 +3314,33 @@
       <c r="C41" t="s">
         <v>334</v>
       </c>
-      <c r="F41" s="18"/>
-    </row>
-    <row r="42" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="14"/>
+    </row>
+    <row r="42" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>135</v>
       </c>
-      <c r="B42" s="16">
+      <c r="B42" s="12">
         <v>44197</v>
       </c>
       <c r="C42" t="s">
         <v>331</v>
       </c>
-      <c r="F42" s="18"/>
-    </row>
-    <row r="43" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F42" s="14"/>
+    </row>
+    <row r="43" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>136</v>
       </c>
-      <c r="B43" s="16">
+      <c r="B43" s="12">
         <v>44197</v>
       </c>
       <c r="C43" t="s">
         <v>331</v>
       </c>
-      <c r="F43" s="18"/>
-    </row>
-    <row r="44" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F43" s="14"/>
+    </row>
+    <row r="44" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>137</v>
       </c>
@@ -2822,9 +3350,9 @@
       <c r="C44" t="s">
         <v>336</v>
       </c>
-      <c r="F44" s="18"/>
-    </row>
-    <row r="45" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F44" s="14"/>
+    </row>
+    <row r="45" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>138</v>
       </c>
@@ -2834,9 +3362,9 @@
       <c r="C45" t="s">
         <v>331</v>
       </c>
-      <c r="F45" s="18"/>
-    </row>
-    <row r="46" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F45" s="14"/>
+    </row>
+    <row r="46" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>139</v>
       </c>
@@ -2846,9 +3374,9 @@
       <c r="C46" t="s">
         <v>337</v>
       </c>
-      <c r="F46" s="18"/>
-    </row>
-    <row r="47" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F46" s="14"/>
+    </row>
+    <row r="47" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>140</v>
       </c>
@@ -2858,9 +3386,9 @@
       <c r="C47" t="s">
         <v>337</v>
       </c>
-      <c r="F47" s="18"/>
-    </row>
-    <row r="48" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F47" s="14"/>
+    </row>
+    <row r="48" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>141</v>
       </c>
@@ -2870,9 +3398,9 @@
       <c r="C48" t="s">
         <v>337</v>
       </c>
-      <c r="F48" s="18"/>
-    </row>
-    <row r="49" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F48" s="14"/>
+    </row>
+    <row r="49" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>142</v>
       </c>
@@ -2882,21 +3410,21 @@
       <c r="C49" t="s">
         <v>337</v>
       </c>
-      <c r="F49" s="18"/>
-    </row>
-    <row r="50" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F49" s="14"/>
+    </row>
+    <row r="50" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>143</v>
       </c>
-      <c r="B50" s="16">
+      <c r="B50" s="12">
         <v>44197</v>
       </c>
       <c r="C50" t="s">
         <v>331</v>
       </c>
-      <c r="F50" s="18"/>
-    </row>
-    <row r="51" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F50" s="14"/>
+    </row>
+    <row r="51" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>144</v>
       </c>
@@ -2906,9 +3434,9 @@
       <c r="C51" t="s">
         <v>337</v>
       </c>
-      <c r="F51" s="18"/>
-    </row>
-    <row r="52" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F51" s="14"/>
+    </row>
+    <row r="52" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>145</v>
       </c>
@@ -2918,33 +3446,33 @@
       <c r="C52" t="s">
         <v>334</v>
       </c>
-      <c r="F52" s="18"/>
-    </row>
-    <row r="53" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F52" s="14"/>
+    </row>
+    <row r="53" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>146</v>
       </c>
-      <c r="B53" s="16">
+      <c r="B53" s="12">
         <v>44197</v>
       </c>
       <c r="C53" t="s">
         <v>331</v>
       </c>
-      <c r="F53" s="18"/>
-    </row>
-    <row r="54" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F53" s="14"/>
+    </row>
+    <row r="54" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>147</v>
       </c>
-      <c r="B54" s="16">
+      <c r="B54" s="12">
         <v>44197</v>
       </c>
       <c r="C54" t="s">
         <v>331</v>
       </c>
-      <c r="F54" s="18"/>
-    </row>
-    <row r="55" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="14"/>
+    </row>
+    <row r="55" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>148</v>
       </c>
@@ -2954,9 +3482,9 @@
       <c r="C55" t="s">
         <v>336</v>
       </c>
-      <c r="F55" s="18"/>
-    </row>
-    <row r="56" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F55" s="14"/>
+    </row>
+    <row r="56" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>149</v>
       </c>
@@ -2966,9 +3494,9 @@
       <c r="C56" t="s">
         <v>90</v>
       </c>
-      <c r="F56" s="18"/>
-    </row>
-    <row r="57" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F56" s="14"/>
+    </row>
+    <row r="57" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>150</v>
       </c>
@@ -2978,9 +3506,9 @@
       <c r="C57" t="s">
         <v>337</v>
       </c>
-      <c r="F57" s="18"/>
-    </row>
-    <row r="58" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F57" s="14"/>
+    </row>
+    <row r="58" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>151</v>
       </c>
@@ -2990,9 +3518,9 @@
       <c r="C58" t="s">
         <v>335</v>
       </c>
-      <c r="F58" s="18"/>
-    </row>
-    <row r="59" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F58" s="14"/>
+    </row>
+    <row r="59" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>152</v>
       </c>
@@ -3002,9 +3530,9 @@
       <c r="C59" t="s">
         <v>335</v>
       </c>
-      <c r="F59" s="18"/>
-    </row>
-    <row r="60" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F59" s="14"/>
+    </row>
+    <row r="60" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>153</v>
       </c>
@@ -3014,9 +3542,9 @@
       <c r="C60" t="s">
         <v>335</v>
       </c>
-      <c r="F60" s="18"/>
-    </row>
-    <row r="61" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>154</v>
       </c>
@@ -3026,9 +3554,9 @@
       <c r="C61" t="s">
         <v>335</v>
       </c>
-      <c r="F61" s="18"/>
-    </row>
-    <row r="62" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F61" s="14"/>
+    </row>
+    <row r="62" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>155</v>
       </c>
@@ -3038,21 +3566,21 @@
       <c r="C62" t="s">
         <v>337</v>
       </c>
-      <c r="F62" s="18"/>
-    </row>
-    <row r="63" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F62" s="14"/>
+    </row>
+    <row r="63" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>156</v>
       </c>
-      <c r="B63" s="16">
+      <c r="B63" s="12">
         <v>44197</v>
       </c>
       <c r="C63" t="s">
         <v>331</v>
       </c>
-      <c r="F63" s="18"/>
-    </row>
-    <row r="64" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F63" s="14"/>
+    </row>
+    <row r="64" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>157</v>
       </c>
@@ -3062,9 +3590,12 @@
       <c r="C64" t="s">
         <v>338</v>
       </c>
-      <c r="F64" s="18"/>
-    </row>
-    <row r="65" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>353</v>
+      </c>
+      <c r="F64" s="14"/>
+    </row>
+    <row r="65" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>158</v>
       </c>
@@ -3074,9 +3605,9 @@
       <c r="C65" t="s">
         <v>339</v>
       </c>
-      <c r="F65" s="18"/>
-    </row>
-    <row r="66" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F65" s="14"/>
+    </row>
+    <row r="66" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>159</v>
       </c>
@@ -3086,9 +3617,9 @@
       <c r="C66" t="s">
         <v>339</v>
       </c>
-      <c r="F66" s="18"/>
-    </row>
-    <row r="67" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F66" s="14"/>
+    </row>
+    <row r="67" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>160</v>
       </c>
@@ -3098,21 +3629,21 @@
       <c r="C67" t="s">
         <v>340</v>
       </c>
-      <c r="F67" s="18"/>
-    </row>
-    <row r="68" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F67" s="14"/>
+    </row>
+    <row r="68" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>161</v>
       </c>
-      <c r="B68" s="16">
+      <c r="B68" s="12">
         <v>44197</v>
       </c>
       <c r="C68" t="s">
         <v>331</v>
       </c>
-      <c r="F68" s="18"/>
-    </row>
-    <row r="69" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F68" s="14"/>
+    </row>
+    <row r="69" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>162</v>
       </c>
@@ -3122,9 +3653,9 @@
       <c r="C69" t="s">
         <v>338</v>
       </c>
-      <c r="F69" s="18"/>
-    </row>
-    <row r="70" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F69" s="14"/>
+    </row>
+    <row r="70" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>163</v>
       </c>
@@ -3134,9 +3665,9 @@
       <c r="C70" t="s">
         <v>337</v>
       </c>
-      <c r="F70" s="18"/>
-    </row>
-    <row r="71" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F70" s="14"/>
+    </row>
+    <row r="71" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>164</v>
       </c>
@@ -3146,9 +3677,9 @@
       <c r="C71" t="s">
         <v>340</v>
       </c>
-      <c r="F71" s="18"/>
-    </row>
-    <row r="72" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F71" s="14"/>
+    </row>
+    <row r="72" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>165</v>
       </c>
@@ -3158,9 +3689,9 @@
       <c r="C72" t="s">
         <v>339</v>
       </c>
-      <c r="F72" s="18"/>
-    </row>
-    <row r="73" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F72" s="14"/>
+    </row>
+    <row r="73" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>166</v>
       </c>
@@ -3170,57 +3701,57 @@
       <c r="C73" t="s">
         <v>341</v>
       </c>
-      <c r="F73" s="18"/>
-    </row>
-    <row r="74" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F73" s="14"/>
+    </row>
+    <row r="74" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>167</v>
       </c>
-      <c r="B74" s="16">
+      <c r="B74" s="12">
         <v>44197</v>
       </c>
       <c r="C74" t="s">
         <v>331</v>
       </c>
-      <c r="F74" s="18"/>
-    </row>
-    <row r="75" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F74" s="14"/>
+    </row>
+    <row r="75" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>168</v>
       </c>
-      <c r="B75" s="16">
+      <c r="B75" s="12">
         <v>44229</v>
       </c>
       <c r="C75" t="s">
         <v>331</v>
       </c>
-      <c r="F75" s="18"/>
-    </row>
-    <row r="76" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F75" s="14"/>
+    </row>
+    <row r="76" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>169</v>
       </c>
-      <c r="B76" s="16">
+      <c r="B76" s="12">
         <v>44197</v>
       </c>
       <c r="C76" t="s">
         <v>331</v>
       </c>
-      <c r="F76" s="18"/>
-    </row>
-    <row r="77" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F76" s="14"/>
+    </row>
+    <row r="77" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>170</v>
       </c>
-      <c r="B77" s="16">
+      <c r="B77" s="12">
         <v>44197</v>
       </c>
       <c r="C77" t="s">
         <v>331</v>
       </c>
-      <c r="F77" s="18"/>
-    </row>
-    <row r="78" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F77" s="14"/>
+    </row>
+    <row r="78" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>171</v>
       </c>
@@ -3230,9 +3761,9 @@
       <c r="C78" t="s">
         <v>90</v>
       </c>
-      <c r="F78" s="18"/>
-    </row>
-    <row r="79" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F78" s="14"/>
+    </row>
+    <row r="79" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>172</v>
       </c>
@@ -3242,9 +3773,9 @@
       <c r="C79" t="s">
         <v>336</v>
       </c>
-      <c r="F79" s="18"/>
-    </row>
-    <row r="80" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F79" s="14"/>
+    </row>
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>173</v>
       </c>
@@ -3254,201 +3785,201 @@
       <c r="C80" t="s">
         <v>90</v>
       </c>
-      <c r="F80" s="18"/>
-    </row>
-    <row r="81" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F80" s="14"/>
+    </row>
+    <row r="81" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>174</v>
       </c>
-      <c r="B81" s="16">
+      <c r="B81" s="12">
         <v>44197</v>
       </c>
       <c r="C81" t="s">
         <v>331</v>
       </c>
-      <c r="F81" s="18"/>
-    </row>
-    <row r="82" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F81" s="14"/>
+    </row>
+    <row r="82" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>175</v>
       </c>
-      <c r="B82" s="16">
+      <c r="B82" s="12">
         <v>44197</v>
       </c>
       <c r="C82" t="s">
         <v>331</v>
       </c>
-      <c r="F82" s="18"/>
-    </row>
-    <row r="83" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F82" s="14"/>
+    </row>
+    <row r="83" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>176</v>
       </c>
-      <c r="B83" s="16">
+      <c r="B83" s="12">
         <v>44197</v>
       </c>
       <c r="C83" t="s">
         <v>331</v>
       </c>
-      <c r="F83" s="18"/>
-    </row>
-    <row r="84" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F83" s="14"/>
+    </row>
+    <row r="84" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>177</v>
       </c>
-      <c r="B84" s="16">
+      <c r="B84" s="12">
         <v>44229</v>
       </c>
       <c r="C84" t="s">
         <v>331</v>
       </c>
-      <c r="F84" s="18"/>
-    </row>
-    <row r="85" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F84" s="14"/>
+    </row>
+    <row r="85" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>178</v>
       </c>
-      <c r="B85" s="16">
+      <c r="B85" s="12">
         <v>44229</v>
       </c>
       <c r="C85" t="s">
         <v>331</v>
       </c>
-      <c r="F85" s="18"/>
-    </row>
-    <row r="86" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F85" s="14"/>
+    </row>
+    <row r="86" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>179</v>
       </c>
-      <c r="B86" s="16">
+      <c r="B86" s="12">
         <v>44229</v>
       </c>
       <c r="C86" t="s">
         <v>331</v>
       </c>
-      <c r="F86" s="18"/>
-    </row>
-    <row r="87" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F86" s="14"/>
+    </row>
+    <row r="87" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>180</v>
       </c>
-      <c r="B87" s="16">
+      <c r="B87" s="12">
         <v>44229</v>
       </c>
       <c r="C87" t="s">
         <v>331</v>
       </c>
-      <c r="F87" s="18"/>
-    </row>
-    <row r="88" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F87" s="14"/>
+    </row>
+    <row r="88" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>181</v>
       </c>
-      <c r="B88" s="16">
+      <c r="B88" s="12">
         <v>44229</v>
       </c>
       <c r="C88" t="s">
         <v>331</v>
       </c>
-      <c r="F88" s="18"/>
-    </row>
-    <row r="89" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F88" s="14"/>
+    </row>
+    <row r="89" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>182</v>
       </c>
-      <c r="B89" s="16">
+      <c r="B89" s="12">
         <v>44258</v>
       </c>
       <c r="C89" t="s">
         <v>331</v>
       </c>
-      <c r="F89" s="18"/>
-    </row>
-    <row r="90" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F89" s="14"/>
+    </row>
+    <row r="90" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>183</v>
       </c>
-      <c r="B90" s="16">
+      <c r="B90" s="12">
         <v>44229</v>
       </c>
       <c r="C90" t="s">
         <v>331</v>
       </c>
-      <c r="F90" s="18"/>
-    </row>
-    <row r="91" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F90" s="14"/>
+    </row>
+    <row r="91" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>184</v>
       </c>
-      <c r="B91" s="16">
+      <c r="B91" s="12">
         <v>44197</v>
       </c>
       <c r="C91" t="s">
         <v>331</v>
       </c>
-      <c r="F91" s="18"/>
-    </row>
-    <row r="92" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F91" s="14"/>
+    </row>
+    <row r="92" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>185</v>
       </c>
-      <c r="B92" s="16">
+      <c r="B92" s="12">
         <v>44197</v>
       </c>
       <c r="C92" t="s">
         <v>331</v>
       </c>
-      <c r="F92" s="18"/>
-    </row>
-    <row r="93" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F92" s="14"/>
+    </row>
+    <row r="93" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>186</v>
       </c>
-      <c r="B93" s="16">
+      <c r="B93" s="12">
         <v>44229</v>
       </c>
       <c r="C93" t="s">
         <v>331</v>
       </c>
-      <c r="F93" s="18"/>
-    </row>
-    <row r="94" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F93" s="14"/>
+    </row>
+    <row r="94" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>187</v>
       </c>
-      <c r="B94" s="16">
+      <c r="B94" s="12">
         <v>44258</v>
       </c>
       <c r="C94" t="s">
         <v>331</v>
       </c>
-      <c r="F94" s="18"/>
-    </row>
-    <row r="95" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F94" s="14"/>
+    </row>
+    <row r="95" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>188</v>
       </c>
-      <c r="B95" s="16">
+      <c r="B95" s="12">
         <v>44229</v>
       </c>
       <c r="C95" t="s">
         <v>331</v>
       </c>
-      <c r="F95" s="18"/>
-    </row>
-    <row r="96" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F95" s="14"/>
+    </row>
+    <row r="96" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>189</v>
       </c>
-      <c r="B96" s="16">
+      <c r="B96" s="12">
         <v>44258</v>
       </c>
       <c r="C96" t="s">
         <v>331</v>
       </c>
-      <c r="F96" s="18"/>
-    </row>
-    <row r="97" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F96" s="14"/>
+    </row>
+    <row r="97" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>190</v>
       </c>
@@ -3458,9 +3989,9 @@
       <c r="C97" t="s">
         <v>90</v>
       </c>
-      <c r="F97" s="18"/>
-    </row>
-    <row r="98" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F97" s="14"/>
+    </row>
+    <row r="98" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>191</v>
       </c>
@@ -3470,9 +4001,9 @@
       <c r="C98" t="s">
         <v>334</v>
       </c>
-      <c r="F98" s="18"/>
-    </row>
-    <row r="99" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F98" s="14"/>
+    </row>
+    <row r="99" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>192</v>
       </c>
@@ -3482,9 +4013,9 @@
       <c r="C99" t="s">
         <v>90</v>
       </c>
-      <c r="F99" s="18"/>
-    </row>
-    <row r="100" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F99" s="14"/>
+    </row>
+    <row r="100" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>193</v>
       </c>
@@ -3494,9 +4025,9 @@
       <c r="C100" t="s">
         <v>335</v>
       </c>
-      <c r="F100" s="18"/>
-    </row>
-    <row r="101" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F100" s="14"/>
+    </row>
+    <row r="101" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>194</v>
       </c>
@@ -3506,9 +4037,9 @@
       <c r="C101" t="s">
         <v>335</v>
       </c>
-      <c r="F101" s="18"/>
-    </row>
-    <row r="102" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F101" s="14"/>
+    </row>
+    <row r="102" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>195</v>
       </c>
@@ -3518,9 +4049,9 @@
       <c r="C102" t="s">
         <v>335</v>
       </c>
-      <c r="F102" s="18"/>
-    </row>
-    <row r="103" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F102" s="14"/>
+    </row>
+    <row r="103" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>196</v>
       </c>
@@ -3530,9 +4061,9 @@
       <c r="C103" t="s">
         <v>335</v>
       </c>
-      <c r="F103" s="18"/>
-    </row>
-    <row r="104" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F103" s="14"/>
+    </row>
+    <row r="104" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>197</v>
       </c>
@@ -3542,9 +4073,9 @@
       <c r="C104" t="s">
         <v>335</v>
       </c>
-      <c r="F104" s="18"/>
-    </row>
-    <row r="105" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F104" s="14"/>
+    </row>
+    <row r="105" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>198</v>
       </c>
@@ -3554,9 +4085,9 @@
       <c r="C105" t="s">
         <v>335</v>
       </c>
-      <c r="F105" s="18"/>
-    </row>
-    <row r="106" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F105" s="14"/>
+    </row>
+    <row r="106" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>199</v>
       </c>
@@ -3566,9 +4097,9 @@
       <c r="C106" t="s">
         <v>335</v>
       </c>
-      <c r="F106" s="18"/>
-    </row>
-    <row r="107" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F106" s="14"/>
+    </row>
+    <row r="107" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>200</v>
       </c>
@@ -3578,9 +4109,9 @@
       <c r="C107" t="s">
         <v>335</v>
       </c>
-      <c r="F107" s="18"/>
-    </row>
-    <row r="108" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F107" s="14"/>
+    </row>
+    <row r="108" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>201</v>
       </c>
@@ -3590,9 +4121,9 @@
       <c r="C108" t="s">
         <v>335</v>
       </c>
-      <c r="F108" s="18"/>
-    </row>
-    <row r="109" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F108" s="14"/>
+    </row>
+    <row r="109" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>202</v>
       </c>
@@ -3602,9 +4133,9 @@
       <c r="C109" t="s">
         <v>335</v>
       </c>
-      <c r="F109" s="18"/>
-    </row>
-    <row r="110" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F109" s="14"/>
+    </row>
+    <row r="110" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>203</v>
       </c>
@@ -3614,9 +4145,9 @@
       <c r="C110" t="s">
         <v>335</v>
       </c>
-      <c r="F110" s="18"/>
-    </row>
-    <row r="111" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F110" s="14"/>
+    </row>
+    <row r="111" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>204</v>
       </c>
@@ -3626,9 +4157,9 @@
       <c r="C111" t="s">
         <v>335</v>
       </c>
-      <c r="F111" s="18"/>
-    </row>
-    <row r="112" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F111" s="14"/>
+    </row>
+    <row r="112" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>205</v>
       </c>
@@ -3638,9 +4169,9 @@
       <c r="C112" t="s">
         <v>335</v>
       </c>
-      <c r="F112" s="18"/>
-    </row>
-    <row r="113" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F112" s="14"/>
+    </row>
+    <row r="113" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>206</v>
       </c>
@@ -3650,9 +4181,9 @@
       <c r="C113" t="s">
         <v>335</v>
       </c>
-      <c r="F113" s="18"/>
-    </row>
-    <row r="114" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F113" s="14"/>
+    </row>
+    <row r="114" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>207</v>
       </c>
@@ -3662,9 +4193,9 @@
       <c r="C114" t="s">
         <v>335</v>
       </c>
-      <c r="F114" s="18"/>
-    </row>
-    <row r="115" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F114" s="14"/>
+    </row>
+    <row r="115" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>208</v>
       </c>
@@ -3674,9 +4205,9 @@
       <c r="C115" t="s">
         <v>335</v>
       </c>
-      <c r="F115" s="18"/>
-    </row>
-    <row r="116" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F115" s="14"/>
+    </row>
+    <row r="116" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>209</v>
       </c>
@@ -3686,9 +4217,9 @@
       <c r="C116" t="s">
         <v>339</v>
       </c>
-      <c r="F116" s="18"/>
-    </row>
-    <row r="117" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F116" s="14"/>
+    </row>
+    <row r="117" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>210</v>
       </c>
@@ -3698,9 +4229,9 @@
       <c r="C117" t="s">
         <v>331</v>
       </c>
-      <c r="F117" s="18"/>
-    </row>
-    <row r="118" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F117" s="14"/>
+    </row>
+    <row r="118" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>211</v>
       </c>
@@ -3710,9 +4241,9 @@
       <c r="C118" t="s">
         <v>338</v>
       </c>
-      <c r="F118" s="18"/>
-    </row>
-    <row r="119" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F118" s="14"/>
+    </row>
+    <row r="119" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>212</v>
       </c>
@@ -3722,9 +4253,9 @@
       <c r="C119" t="s">
         <v>339</v>
       </c>
-      <c r="F119" s="18"/>
-    </row>
-    <row r="120" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F119" s="14"/>
+    </row>
+    <row r="120" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>213</v>
       </c>
@@ -3734,9 +4265,9 @@
       <c r="C120" t="s">
         <v>342</v>
       </c>
-      <c r="F120" s="18"/>
-    </row>
-    <row r="121" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F120" s="14"/>
+    </row>
+    <row r="121" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>214</v>
       </c>
@@ -3746,9 +4277,9 @@
       <c r="C121" t="s">
         <v>342</v>
       </c>
-      <c r="F121" s="18"/>
-    </row>
-    <row r="122" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F121" s="14"/>
+    </row>
+    <row r="122" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>215</v>
       </c>
@@ -3758,9 +4289,9 @@
       <c r="C122" t="s">
         <v>334</v>
       </c>
-      <c r="F122" s="18"/>
-    </row>
-    <row r="123" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F122" s="14"/>
+    </row>
+    <row r="123" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>216</v>
       </c>
@@ -3770,9 +4301,9 @@
       <c r="C123" t="s">
         <v>334</v>
       </c>
-      <c r="F123" s="18"/>
-    </row>
-    <row r="124" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F123" s="14"/>
+    </row>
+    <row r="124" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>217</v>
       </c>
@@ -3782,9 +4313,9 @@
       <c r="C124" t="s">
         <v>340</v>
       </c>
-      <c r="F124" s="18"/>
-    </row>
-    <row r="125" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F124" s="14"/>
+    </row>
+    <row r="125" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>218</v>
       </c>
@@ -3794,9 +4325,9 @@
       <c r="C125" t="s">
         <v>340</v>
       </c>
-      <c r="F125" s="18"/>
-    </row>
-    <row r="126" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F125" s="14"/>
+    </row>
+    <row r="126" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>219</v>
       </c>
@@ -3806,9 +4337,9 @@
       <c r="C126" t="s">
         <v>342</v>
       </c>
-      <c r="F126" s="18"/>
-    </row>
-    <row r="127" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F126" s="14"/>
+    </row>
+    <row r="127" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>220</v>
       </c>
@@ -3818,9 +4349,9 @@
       <c r="C127" t="s">
         <v>342</v>
       </c>
-      <c r="F127" s="18"/>
-    </row>
-    <row r="128" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F127" s="14"/>
+    </row>
+    <row r="128" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>221</v>
       </c>
@@ -3830,9 +4361,9 @@
       <c r="C128" t="s">
         <v>342</v>
       </c>
-      <c r="F128" s="18"/>
-    </row>
-    <row r="129" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F128" s="14"/>
+    </row>
+    <row r="129" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>222</v>
       </c>
@@ -3842,9 +4373,9 @@
       <c r="C129" t="s">
         <v>340</v>
       </c>
-      <c r="F129" s="18"/>
-    </row>
-    <row r="130" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F129" s="14"/>
+    </row>
+    <row r="130" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>223</v>
       </c>
@@ -3854,9 +4385,9 @@
       <c r="C130" t="s">
         <v>342</v>
       </c>
-      <c r="F130" s="18"/>
-    </row>
-    <row r="131" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F130" s="14"/>
+    </row>
+    <row r="131" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>224</v>
       </c>
@@ -3866,9 +4397,9 @@
       <c r="C131" t="s">
         <v>338</v>
       </c>
-      <c r="F131" s="18"/>
-    </row>
-    <row r="132" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F131" s="14"/>
+    </row>
+    <row r="132" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>225</v>
       </c>
@@ -3878,9 +4409,9 @@
       <c r="C132" t="s">
         <v>340</v>
       </c>
-      <c r="F132" s="18"/>
-    </row>
-    <row r="133" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F132" s="14"/>
+    </row>
+    <row r="133" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>226</v>
       </c>
@@ -3890,9 +4421,9 @@
       <c r="C133" t="s">
         <v>335</v>
       </c>
-      <c r="F133" s="18"/>
-    </row>
-    <row r="134" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F133" s="14"/>
+    </row>
+    <row r="134" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>227</v>
       </c>
@@ -3902,9 +4433,9 @@
       <c r="C134" t="s">
         <v>335</v>
       </c>
-      <c r="F134" s="18"/>
-    </row>
-    <row r="135" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F134" s="14"/>
+    </row>
+    <row r="135" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>228</v>
       </c>
@@ -3914,9 +4445,9 @@
       <c r="C135" t="s">
         <v>335</v>
       </c>
-      <c r="F135" s="18"/>
-    </row>
-    <row r="136" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F135" s="14"/>
+    </row>
+    <row r="136" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>229</v>
       </c>
@@ -3926,9 +4457,9 @@
       <c r="C136" t="s">
         <v>335</v>
       </c>
-      <c r="F136" s="18"/>
-    </row>
-    <row r="137" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F136" s="14"/>
+    </row>
+    <row r="137" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>230</v>
       </c>
@@ -3938,9 +4469,9 @@
       <c r="C137" t="s">
         <v>335</v>
       </c>
-      <c r="F137" s="18"/>
-    </row>
-    <row r="138" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F137" s="14"/>
+    </row>
+    <row r="138" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>231</v>
       </c>
@@ -3950,9 +4481,9 @@
       <c r="C138" t="s">
         <v>90</v>
       </c>
-      <c r="F138" s="18"/>
-    </row>
-    <row r="139" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F138" s="14"/>
+    </row>
+    <row r="139" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>232</v>
       </c>
@@ -3962,9 +4493,9 @@
       <c r="C139" t="s">
         <v>342</v>
       </c>
-      <c r="F139" s="18"/>
-    </row>
-    <row r="140" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F139" s="14"/>
+    </row>
+    <row r="140" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>233</v>
       </c>
@@ -3974,9 +4505,9 @@
       <c r="C140" t="s">
         <v>342</v>
       </c>
-      <c r="F140" s="18"/>
-    </row>
-    <row r="141" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F140" s="14"/>
+    </row>
+    <row r="141" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>234</v>
       </c>
@@ -3986,9 +4517,9 @@
       <c r="C141" t="s">
         <v>342</v>
       </c>
-      <c r="F141" s="18"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F141" s="14"/>
+    </row>
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>235</v>
       </c>
@@ -3998,21 +4529,21 @@
       <c r="C142" t="s">
         <v>332</v>
       </c>
-      <c r="F142" s="21"/>
-    </row>
-    <row r="143" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F142" s="17"/>
+    </row>
+    <row r="143" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>236</v>
       </c>
-      <c r="B143" s="16">
+      <c r="B143" s="12">
         <v>44197</v>
       </c>
       <c r="C143" t="s">
         <v>331</v>
       </c>
-      <c r="F143" s="18"/>
-    </row>
-    <row r="144" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F143" s="14"/>
+    </row>
+    <row r="144" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>237</v>
       </c>
@@ -4022,9 +4553,9 @@
       <c r="C144" t="s">
         <v>333</v>
       </c>
-      <c r="F144" s="18"/>
-    </row>
-    <row r="145" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F144" s="14"/>
+    </row>
+    <row r="145" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>238</v>
       </c>
@@ -4034,9 +4565,9 @@
       <c r="C145" t="s">
         <v>343</v>
       </c>
-      <c r="F145" s="18"/>
-    </row>
-    <row r="146" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F145" s="14"/>
+    </row>
+    <row r="146" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>239</v>
       </c>
@@ -4046,9 +4577,9 @@
       <c r="C146" t="s">
         <v>338</v>
       </c>
-      <c r="F146" s="18"/>
-    </row>
-    <row r="147" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F146" s="14"/>
+    </row>
+    <row r="147" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>240</v>
       </c>
@@ -4058,9 +4589,9 @@
       <c r="C147" t="s">
         <v>336</v>
       </c>
-      <c r="F147" s="18"/>
-    </row>
-    <row r="148" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F147" s="14"/>
+    </row>
+    <row r="148" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>241</v>
       </c>
@@ -4070,9 +4601,9 @@
       <c r="C148" t="s">
         <v>335</v>
       </c>
-      <c r="F148" s="18"/>
-    </row>
-    <row r="149" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F148" s="14"/>
+    </row>
+    <row r="149" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>242</v>
       </c>
@@ -4082,9 +4613,9 @@
       <c r="C149" t="s">
         <v>335</v>
       </c>
-      <c r="F149" s="18"/>
-    </row>
-    <row r="150" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F149" s="14"/>
+    </row>
+    <row r="150" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>243</v>
       </c>
@@ -4094,9 +4625,9 @@
       <c r="C150" t="s">
         <v>335</v>
       </c>
-      <c r="F150" s="18"/>
-    </row>
-    <row r="151" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F150" s="14"/>
+    </row>
+    <row r="151" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>244</v>
       </c>
@@ -4106,9 +4637,9 @@
       <c r="C151" t="s">
         <v>335</v>
       </c>
-      <c r="F151" s="18"/>
-    </row>
-    <row r="152" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F151" s="14"/>
+    </row>
+    <row r="152" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>245</v>
       </c>
@@ -4118,9 +4649,9 @@
       <c r="C152" t="s">
         <v>335</v>
       </c>
-      <c r="F152" s="18"/>
-    </row>
-    <row r="153" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F152" s="14"/>
+    </row>
+    <row r="153" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>246</v>
       </c>
@@ -4130,9 +4661,9 @@
       <c r="C153" t="s">
         <v>335</v>
       </c>
-      <c r="F153" s="18"/>
-    </row>
-    <row r="154" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F153" s="14"/>
+    </row>
+    <row r="154" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>247</v>
       </c>
@@ -4142,9 +4673,9 @@
       <c r="C154" t="s">
         <v>335</v>
       </c>
-      <c r="F154" s="18"/>
-    </row>
-    <row r="155" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F154" s="14"/>
+    </row>
+    <row r="155" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>248</v>
       </c>
@@ -4154,9 +4685,9 @@
       <c r="C155" t="s">
         <v>335</v>
       </c>
-      <c r="F155" s="18"/>
-    </row>
-    <row r="156" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F155" s="14"/>
+    </row>
+    <row r="156" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>249</v>
       </c>
@@ -4166,9 +4697,9 @@
       <c r="C156" t="s">
         <v>335</v>
       </c>
-      <c r="F156" s="18"/>
-    </row>
-    <row r="157" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F156" s="14"/>
+    </row>
+    <row r="157" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>250</v>
       </c>
@@ -4178,9 +4709,9 @@
       <c r="C157" t="s">
         <v>335</v>
       </c>
-      <c r="F157" s="18"/>
-    </row>
-    <row r="158" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F157" s="14"/>
+    </row>
+    <row r="158" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>251</v>
       </c>
@@ -4190,9 +4721,9 @@
       <c r="C158" t="s">
         <v>335</v>
       </c>
-      <c r="F158" s="18"/>
-    </row>
-    <row r="159" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F158" s="14"/>
+    </row>
+    <row r="159" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>252</v>
       </c>
@@ -4202,9 +4733,9 @@
       <c r="C159" t="s">
         <v>335</v>
       </c>
-      <c r="F159" s="18"/>
-    </row>
-    <row r="160" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F159" s="14"/>
+    </row>
+    <row r="160" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>253</v>
       </c>
@@ -4214,9 +4745,9 @@
       <c r="C160" t="s">
         <v>335</v>
       </c>
-      <c r="F160" s="18"/>
-    </row>
-    <row r="161" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F160" s="14"/>
+    </row>
+    <row r="161" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>254</v>
       </c>
@@ -4226,9 +4757,9 @@
       <c r="C161" t="s">
         <v>335</v>
       </c>
-      <c r="F161" s="18"/>
-    </row>
-    <row r="162" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F161" s="14"/>
+    </row>
+    <row r="162" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>255</v>
       </c>
@@ -4238,9 +4769,9 @@
       <c r="C162" t="s">
         <v>335</v>
       </c>
-      <c r="F162" s="18"/>
-    </row>
-    <row r="163" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F162" s="14"/>
+    </row>
+    <row r="163" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>256</v>
       </c>
@@ -4250,9 +4781,9 @@
       <c r="C163" t="s">
         <v>335</v>
       </c>
-      <c r="F163" s="18"/>
-    </row>
-    <row r="164" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F163" s="14"/>
+    </row>
+    <row r="164" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>257</v>
       </c>
@@ -4262,9 +4793,9 @@
       <c r="C164" t="s">
         <v>335</v>
       </c>
-      <c r="F164" s="18"/>
-    </row>
-    <row r="165" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F164" s="14"/>
+    </row>
+    <row r="165" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>258</v>
       </c>
@@ -4274,9 +4805,9 @@
       <c r="C165" t="s">
         <v>335</v>
       </c>
-      <c r="F165" s="18"/>
-    </row>
-    <row r="166" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F165" s="14"/>
+    </row>
+    <row r="166" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>259</v>
       </c>
@@ -4286,9 +4817,9 @@
       <c r="C166" t="s">
         <v>335</v>
       </c>
-      <c r="F166" s="18"/>
-    </row>
-    <row r="167" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F166" s="14"/>
+    </row>
+    <row r="167" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>260</v>
       </c>
@@ -4298,9 +4829,9 @@
       <c r="C167" t="s">
         <v>335</v>
       </c>
-      <c r="F167" s="18"/>
-    </row>
-    <row r="168" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F167" s="14"/>
+    </row>
+    <row r="168" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>261</v>
       </c>
@@ -4310,9 +4841,9 @@
       <c r="C168" t="s">
         <v>335</v>
       </c>
-      <c r="F168" s="18"/>
-    </row>
-    <row r="169" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F168" s="14"/>
+    </row>
+    <row r="169" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>262</v>
       </c>
@@ -4322,9 +4853,9 @@
       <c r="C169" t="s">
         <v>335</v>
       </c>
-      <c r="F169" s="18"/>
-    </row>
-    <row r="170" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F169" s="14"/>
+    </row>
+    <row r="170" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>263</v>
       </c>
@@ -4334,9 +4865,9 @@
       <c r="C170" t="s">
         <v>335</v>
       </c>
-      <c r="F170" s="18"/>
-    </row>
-    <row r="171" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F170" s="14"/>
+    </row>
+    <row r="171" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>264</v>
       </c>
@@ -4346,9 +4877,9 @@
       <c r="C171" t="s">
         <v>335</v>
       </c>
-      <c r="F171" s="18"/>
-    </row>
-    <row r="172" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F171" s="14"/>
+    </row>
+    <row r="172" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>265</v>
       </c>
@@ -4358,9 +4889,9 @@
       <c r="C172" t="s">
         <v>335</v>
       </c>
-      <c r="F172" s="18"/>
-    </row>
-    <row r="173" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F172" s="14"/>
+    </row>
+    <row r="173" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>266</v>
       </c>
@@ -4370,9 +4901,9 @@
       <c r="C173" t="s">
         <v>335</v>
       </c>
-      <c r="F173" s="18"/>
-    </row>
-    <row r="174" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F173" s="14"/>
+    </row>
+    <row r="174" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>267</v>
       </c>
@@ -4382,9 +4913,9 @@
       <c r="C174" t="s">
         <v>342</v>
       </c>
-      <c r="F174" s="18"/>
-    </row>
-    <row r="175" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F174" s="14"/>
+    </row>
+    <row r="175" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>268</v>
       </c>
@@ -4394,9 +4925,9 @@
       <c r="C175" t="s">
         <v>335</v>
       </c>
-      <c r="F175" s="18"/>
-    </row>
-    <row r="176" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F175" s="14"/>
+    </row>
+    <row r="176" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>269</v>
       </c>
@@ -4406,9 +4937,9 @@
       <c r="C176" t="s">
         <v>335</v>
       </c>
-      <c r="F176" s="18"/>
-    </row>
-    <row r="177" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F176" s="14"/>
+    </row>
+    <row r="177" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>270</v>
       </c>
@@ -4418,9 +4949,9 @@
       <c r="C177" t="s">
         <v>335</v>
       </c>
-      <c r="F177" s="18"/>
-    </row>
-    <row r="178" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F177" s="14"/>
+    </row>
+    <row r="178" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>271</v>
       </c>
@@ -4430,9 +4961,9 @@
       <c r="C178" t="s">
         <v>335</v>
       </c>
-      <c r="F178" s="18"/>
-    </row>
-    <row r="179" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F178" s="14"/>
+    </row>
+    <row r="179" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>272</v>
       </c>
@@ -4442,9 +4973,9 @@
       <c r="C179" t="s">
         <v>335</v>
       </c>
-      <c r="F179" s="18"/>
-    </row>
-    <row r="180" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F179" s="14"/>
+    </row>
+    <row r="180" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>273</v>
       </c>
@@ -4454,9 +4985,9 @@
       <c r="C180" t="s">
         <v>335</v>
       </c>
-      <c r="F180" s="18"/>
-    </row>
-    <row r="181" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F180" s="14"/>
+    </row>
+    <row r="181" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>274</v>
       </c>
@@ -4466,9 +4997,9 @@
       <c r="C181" t="s">
         <v>335</v>
       </c>
-      <c r="F181" s="18"/>
-    </row>
-    <row r="182" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F181" s="14"/>
+    </row>
+    <row r="182" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>275</v>
       </c>
@@ -4478,9 +5009,9 @@
       <c r="C182" t="s">
         <v>335</v>
       </c>
-      <c r="F182" s="18"/>
-    </row>
-    <row r="183" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F182" s="14"/>
+    </row>
+    <row r="183" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>276</v>
       </c>
@@ -4490,9 +5021,9 @@
       <c r="C183" t="s">
         <v>335</v>
       </c>
-      <c r="F183" s="18"/>
-    </row>
-    <row r="184" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F183" s="14"/>
+    </row>
+    <row r="184" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>277</v>
       </c>
@@ -4502,9 +5033,9 @@
       <c r="C184" t="s">
         <v>335</v>
       </c>
-      <c r="F184" s="18"/>
-    </row>
-    <row r="185" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F184" s="14"/>
+    </row>
+    <row r="185" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>278</v>
       </c>
@@ -4514,9 +5045,9 @@
       <c r="C185" t="s">
         <v>335</v>
       </c>
-      <c r="F185" s="18"/>
-    </row>
-    <row r="186" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F185" s="14"/>
+    </row>
+    <row r="186" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>279</v>
       </c>
@@ -4526,9 +5057,9 @@
       <c r="C186" t="s">
         <v>335</v>
       </c>
-      <c r="F186" s="18"/>
-    </row>
-    <row r="187" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F186" s="14"/>
+    </row>
+    <row r="187" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>280</v>
       </c>
@@ -4538,9 +5069,9 @@
       <c r="C187" t="s">
         <v>335</v>
       </c>
-      <c r="F187" s="18"/>
-    </row>
-    <row r="188" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F187" s="14"/>
+    </row>
+    <row r="188" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>281</v>
       </c>
@@ -4550,9 +5081,9 @@
       <c r="C188" t="s">
         <v>335</v>
       </c>
-      <c r="F188" s="18"/>
-    </row>
-    <row r="189" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F188" s="14"/>
+    </row>
+    <row r="189" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>282</v>
       </c>
@@ -4562,9 +5093,9 @@
       <c r="C189" t="s">
         <v>335</v>
       </c>
-      <c r="F189" s="18"/>
-    </row>
-    <row r="190" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F189" s="14"/>
+    </row>
+    <row r="190" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>283</v>
       </c>
@@ -4574,9 +5105,9 @@
       <c r="C190" t="s">
         <v>335</v>
       </c>
-      <c r="F190" s="18"/>
-    </row>
-    <row r="191" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F190" s="14"/>
+    </row>
+    <row r="191" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>284</v>
       </c>
@@ -4586,9 +5117,9 @@
       <c r="C191" t="s">
         <v>335</v>
       </c>
-      <c r="F191" s="18"/>
-    </row>
-    <row r="192" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F191" s="14"/>
+    </row>
+    <row r="192" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>285</v>
       </c>
@@ -4598,9 +5129,9 @@
       <c r="C192" t="s">
         <v>340</v>
       </c>
-      <c r="F192" s="18"/>
-    </row>
-    <row r="193" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F192" s="14"/>
+    </row>
+    <row r="193" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>286</v>
       </c>
@@ -4610,9 +5141,9 @@
       <c r="C193" t="s">
         <v>335</v>
       </c>
-      <c r="F193" s="18"/>
-    </row>
-    <row r="194" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F193" s="14"/>
+    </row>
+    <row r="194" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>287</v>
       </c>
@@ -4622,9 +5153,9 @@
       <c r="C194" t="s">
         <v>335</v>
       </c>
-      <c r="F194" s="18"/>
-    </row>
-    <row r="195" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F194" s="14"/>
+    </row>
+    <row r="195" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>288</v>
       </c>
@@ -4634,9 +5165,9 @@
       <c r="C195" t="s">
         <v>335</v>
       </c>
-      <c r="F195" s="18"/>
-    </row>
-    <row r="196" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F195" s="14"/>
+    </row>
+    <row r="196" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>289</v>
       </c>
@@ -4646,9 +5177,9 @@
       <c r="C196" t="s">
         <v>335</v>
       </c>
-      <c r="F196" s="18"/>
-    </row>
-    <row r="197" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F196" s="14"/>
+    </row>
+    <row r="197" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>290</v>
       </c>
@@ -4658,9 +5189,9 @@
       <c r="C197" t="s">
         <v>335</v>
       </c>
-      <c r="F197" s="18"/>
-    </row>
-    <row r="198" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F197" s="14"/>
+    </row>
+    <row r="198" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>291</v>
       </c>
@@ -4670,9 +5201,9 @@
       <c r="C198" t="s">
         <v>335</v>
       </c>
-      <c r="F198" s="18"/>
-    </row>
-    <row r="199" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F198" s="14"/>
+    </row>
+    <row r="199" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>292</v>
       </c>
@@ -4682,9 +5213,9 @@
       <c r="C199" t="s">
         <v>335</v>
       </c>
-      <c r="F199" s="18"/>
-    </row>
-    <row r="200" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F199" s="14"/>
+    </row>
+    <row r="200" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>293</v>
       </c>
@@ -4694,9 +5225,9 @@
       <c r="C200" t="s">
         <v>335</v>
       </c>
-      <c r="F200" s="18"/>
-    </row>
-    <row r="201" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F200" s="14"/>
+    </row>
+    <row r="201" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>294</v>
       </c>
@@ -4706,9 +5237,9 @@
       <c r="C201" t="s">
         <v>335</v>
       </c>
-      <c r="F201" s="18"/>
-    </row>
-    <row r="202" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F201" s="14"/>
+    </row>
+    <row r="202" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>295</v>
       </c>
@@ -4718,9 +5249,9 @@
       <c r="C202" t="s">
         <v>335</v>
       </c>
-      <c r="F202" s="18"/>
-    </row>
-    <row r="203" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F202" s="14"/>
+    </row>
+    <row r="203" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>296</v>
       </c>
@@ -4730,9 +5261,9 @@
       <c r="C203" t="s">
         <v>335</v>
       </c>
-      <c r="F203" s="18"/>
-    </row>
-    <row r="204" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F203" s="14"/>
+    </row>
+    <row r="204" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>297</v>
       </c>
@@ -4742,9 +5273,9 @@
       <c r="C204" t="s">
         <v>335</v>
       </c>
-      <c r="F204" s="18"/>
-    </row>
-    <row r="205" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F204" s="14"/>
+    </row>
+    <row r="205" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>298</v>
       </c>
@@ -4754,9 +5285,9 @@
       <c r="C205" t="s">
         <v>335</v>
       </c>
-      <c r="F205" s="18"/>
-    </row>
-    <row r="206" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F205" s="14"/>
+    </row>
+    <row r="206" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>299</v>
       </c>
@@ -4766,9 +5297,9 @@
       <c r="C206" t="s">
         <v>335</v>
       </c>
-      <c r="F206" s="18"/>
-    </row>
-    <row r="207" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F206" s="14"/>
+    </row>
+    <row r="207" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>300</v>
       </c>
@@ -4778,9 +5309,9 @@
       <c r="C207" t="s">
         <v>335</v>
       </c>
-      <c r="F207" s="18"/>
-    </row>
-    <row r="208" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F207" s="14"/>
+    </row>
+    <row r="208" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>301</v>
       </c>
@@ -4790,9 +5321,9 @@
       <c r="C208" t="s">
         <v>335</v>
       </c>
-      <c r="F208" s="18"/>
-    </row>
-    <row r="209" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F208" s="14"/>
+    </row>
+    <row r="209" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>302</v>
       </c>
@@ -4802,57 +5333,57 @@
       <c r="C209" t="s">
         <v>342</v>
       </c>
-      <c r="F209" s="18"/>
-    </row>
-    <row r="210" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F209" s="14"/>
+    </row>
+    <row r="210" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>303</v>
       </c>
-      <c r="B210" s="16">
+      <c r="B210" s="12">
         <v>44229</v>
       </c>
       <c r="C210" t="s">
         <v>331</v>
       </c>
-      <c r="F210" s="18"/>
-    </row>
-    <row r="211" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F210" s="14"/>
+    </row>
+    <row r="211" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>304</v>
       </c>
-      <c r="B211" s="16">
+      <c r="B211" s="12">
         <v>44229</v>
       </c>
       <c r="C211" t="s">
         <v>331</v>
       </c>
-      <c r="F211" s="18"/>
-    </row>
-    <row r="212" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F211" s="14"/>
+    </row>
+    <row r="212" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>305</v>
       </c>
-      <c r="B212" s="16">
+      <c r="B212" s="12">
         <v>44197</v>
       </c>
       <c r="C212" t="s">
         <v>331</v>
       </c>
-      <c r="F212" s="18"/>
-    </row>
-    <row r="213" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F212" s="14"/>
+    </row>
+    <row r="213" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>306</v>
       </c>
-      <c r="B213" s="16">
+      <c r="B213" s="12">
         <v>44197</v>
       </c>
       <c r="C213" t="s">
         <v>331</v>
       </c>
-      <c r="F213" s="18"/>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F213" s="14"/>
+    </row>
+    <row r="214" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>307</v>
       </c>
@@ -4862,9 +5393,9 @@
       <c r="C214" t="s">
         <v>332</v>
       </c>
-      <c r="F214" s="21"/>
-    </row>
-    <row r="215" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F214" s="17"/>
+    </row>
+    <row r="215" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>308</v>
       </c>
@@ -4874,9 +5405,9 @@
       <c r="C215" t="s">
         <v>333</v>
       </c>
-      <c r="F215" s="18"/>
-    </row>
-    <row r="216" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F215" s="14"/>
+    </row>
+    <row r="216" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>309</v>
       </c>
@@ -4886,93 +5417,93 @@
       <c r="C216" t="s">
         <v>338</v>
       </c>
-      <c r="F216" s="18"/>
-    </row>
-    <row r="217" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F216" s="14"/>
+    </row>
+    <row r="217" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>310</v>
       </c>
-      <c r="B217" s="16">
+      <c r="B217" s="12">
         <v>44197</v>
       </c>
       <c r="C217" t="s">
         <v>331</v>
       </c>
-      <c r="F217" s="18"/>
-    </row>
-    <row r="218" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F217" s="14"/>
+    </row>
+    <row r="218" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>311</v>
       </c>
-      <c r="B218" s="16">
+      <c r="B218" s="12">
         <v>44229</v>
       </c>
       <c r="C218" t="s">
         <v>331</v>
       </c>
-      <c r="F218" s="18"/>
-    </row>
-    <row r="219" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F218" s="14"/>
+    </row>
+    <row r="219" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>312</v>
       </c>
-      <c r="B219" s="16">
+      <c r="B219" s="12">
         <v>44229</v>
       </c>
       <c r="C219" t="s">
         <v>331</v>
       </c>
-      <c r="F219" s="18"/>
-    </row>
-    <row r="220" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F219" s="14"/>
+    </row>
+    <row r="220" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>313</v>
       </c>
-      <c r="B220" s="16">
+      <c r="B220" s="12">
         <v>44197</v>
       </c>
       <c r="C220" t="s">
         <v>331</v>
       </c>
-      <c r="F220" s="18"/>
-    </row>
-    <row r="221" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F220" s="14"/>
+    </row>
+    <row r="221" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>314</v>
       </c>
-      <c r="B221" s="16">
+      <c r="B221" s="12">
         <v>44229</v>
       </c>
       <c r="C221" t="s">
         <v>331</v>
       </c>
-      <c r="F221" s="18"/>
-    </row>
-    <row r="222" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F221" s="14"/>
+    </row>
+    <row r="222" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>315</v>
       </c>
-      <c r="B222" s="16">
+      <c r="B222" s="12">
         <v>44229</v>
       </c>
       <c r="C222" t="s">
         <v>331</v>
       </c>
-      <c r="F222" s="18"/>
-    </row>
-    <row r="223" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F222" s="14"/>
+    </row>
+    <row r="223" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>316</v>
       </c>
-      <c r="B223" s="16">
+      <c r="B223" s="12">
         <v>44197</v>
       </c>
       <c r="C223" t="s">
         <v>331</v>
       </c>
-      <c r="F223" s="18"/>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F223" s="14"/>
+    </row>
+    <row r="224" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>317</v>
       </c>
@@ -4982,9 +5513,9 @@
       <c r="C224" t="s">
         <v>332</v>
       </c>
-      <c r="F224" s="21"/>
-    </row>
-    <row r="225" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F224" s="17"/>
+    </row>
+    <row r="225" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>318</v>
       </c>
@@ -4994,33 +5525,33 @@
       <c r="C225" t="s">
         <v>344</v>
       </c>
-      <c r="F225" s="18"/>
-    </row>
-    <row r="226" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F225" s="14"/>
+    </row>
+    <row r="226" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>319</v>
       </c>
-      <c r="B226" s="16">
+      <c r="B226" s="12">
         <v>44197</v>
       </c>
       <c r="C226" t="s">
         <v>331</v>
       </c>
-      <c r="F226" s="18"/>
-    </row>
-    <row r="227" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F226" s="14"/>
+    </row>
+    <row r="227" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>320</v>
       </c>
-      <c r="B227" s="16">
+      <c r="B227" s="12">
         <v>44197</v>
       </c>
       <c r="C227" t="s">
         <v>331</v>
       </c>
-      <c r="F227" s="18"/>
-    </row>
-    <row r="228" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F227" s="14"/>
+    </row>
+    <row r="228" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>321</v>
       </c>
@@ -5030,97 +5561,98 @@
       <c r="C228" t="s">
         <v>334</v>
       </c>
-      <c r="F228" s="18"/>
-    </row>
-    <row r="229" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F228" s="14"/>
+    </row>
+    <row r="229" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>322</v>
       </c>
-      <c r="B229" s="16">
+      <c r="B229" s="12">
         <v>44197</v>
       </c>
       <c r="C229" t="s">
         <v>331</v>
       </c>
-      <c r="F229" s="18"/>
-    </row>
-    <row r="230" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F229" s="14"/>
+    </row>
+    <row r="230" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>323</v>
       </c>
-      <c r="B230" s="16">
+      <c r="B230" s="12">
         <v>44197</v>
       </c>
       <c r="C230" t="s">
         <v>331</v>
       </c>
-      <c r="F230" s="18"/>
-    </row>
-    <row r="231" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F230" s="14"/>
+    </row>
+    <row r="231" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>324</v>
       </c>
-      <c r="B231" s="16">
+      <c r="B231" s="12">
         <v>44197</v>
       </c>
       <c r="C231" t="s">
         <v>331</v>
       </c>
-      <c r="F231" s="18"/>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F232" s="21"/>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F233" s="21"/>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F234" s="21"/>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F235" s="21"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F236" s="21"/>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F237" s="21"/>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F238" s="21"/>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F239" s="21"/>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F240" s="21"/>
-    </row>
-    <row r="241" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F241" s="21"/>
-    </row>
-    <row r="242" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F242" s="21"/>
-    </row>
-    <row r="243" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F243" s="21"/>
-    </row>
-    <row r="244" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F244" s="21"/>
-    </row>
-    <row r="245" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F245" s="21"/>
-    </row>
-    <row r="246" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F246" s="21"/>
-    </row>
-    <row r="247" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F247" s="21"/>
+      <c r="F231" s="14"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F232" s="17"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F233" s="17"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F234" s="17"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F235" s="17"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F236" s="17"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F237" s="17"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F238" s="17"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F239" s="17"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F240" s="17"/>
+    </row>
+    <row r="241" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F241" s="17"/>
+    </row>
+    <row r="242" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F242" s="17"/>
+    </row>
+    <row r="243" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F243" s="17"/>
+    </row>
+    <row r="244" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F244" s="17"/>
+    </row>
+    <row r="245" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F245" s="17"/>
+    </row>
+    <row r="246" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F246" s="17"/>
+    </row>
+    <row r="247" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="F247" s="17"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:C231" xr:uid="{64DB02A1-09DF-484C-B318-3F801E118F8E}">
-    <filterColumn colId="2">
+    <filterColumn colId="0">
       <filters>
-        <filter val="CrashLoopBackOff"/>
+        <filter val="modeling-modeling-etsicatalog-84bf7965bc-z78mf"/>
+        <filter val="modeling-modeling-etsicatalog-config-job-bd22m"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -5131,12 +5663,2101 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B2AA273-67C8-45FE-8023-7621E91F2282}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="44.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="22" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="10"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3" s="10"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="B4" s="10"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="B5" s="10"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="B6" s="10"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="B7" s="10"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="B8" s="10"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="B9" s="10"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="B10" s="10"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="B11" s="10"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="B12" s="10"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="B13" s="10"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="B14" s="10"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="B15" s="10"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="B16" s="10"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="B18" s="10"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="B19" s="10"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="10"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="10"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="10"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="24" t="s">
+        <v>374</v>
+      </c>
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="24" t="s">
+        <v>376</v>
+      </c>
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="24" t="s">
+        <v>377</v>
+      </c>
+      <c r="B28" s="10"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="24" t="s">
+        <v>378</v>
+      </c>
+      <c r="B29" s="10"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="B30" s="10"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="24" t="s">
+        <v>380</v>
+      </c>
+      <c r="B31" s="10"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="B32" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9849A3B6-B4DE-443E-A321-E8436803CA1E}">
+  <dimension ref="A1:H128"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>385</v>
+      </c>
+      <c r="C5" s="26"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>386</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>387</v>
+      </c>
+      <c r="C7" s="26"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>388</v>
+      </c>
+      <c r="C8" s="26"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="C9" s="26"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>390</v>
+      </c>
+      <c r="C10" s="26"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>391</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>393</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="26" t="s">
+        <v>356</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>394</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="26" t="s">
+        <v>357</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="26" t="s">
+        <v>358</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>451</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>452</v>
+      </c>
+      <c r="C33" s="26"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="C34" s="26"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>454</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="26" t="s">
+        <v>395</v>
+      </c>
+      <c r="B36" s="26" t="s">
+        <v>455</v>
+      </c>
+      <c r="C36" s="26"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>361</v>
+      </c>
+      <c r="C37" s="26"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>456</v>
+      </c>
+      <c r="C38" s="26"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>457</v>
+      </c>
+      <c r="C39" s="26"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="B40" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="C40" s="26"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>459</v>
+      </c>
+      <c r="C41" s="26"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="C42" s="26"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="26" t="s">
+        <v>362</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="C43" s="26"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="C44" s="26"/>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="B45" s="26" t="s">
+        <v>463</v>
+      </c>
+      <c r="C45" s="26"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>464</v>
+      </c>
+      <c r="C46" s="26"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="B47" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="C47" s="26"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="B48" s="26" t="s">
+        <v>466</v>
+      </c>
+      <c r="C48" s="26"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>467</v>
+      </c>
+      <c r="C49" s="26"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="B50" s="26" t="s">
+        <v>468</v>
+      </c>
+      <c r="C50" s="26"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" s="26"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="B52" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="C52" s="26"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="26" t="s">
+        <v>364</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>470</v>
+      </c>
+      <c r="C53" s="26"/>
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="B54" s="26" t="s">
+        <v>471</v>
+      </c>
+      <c r="C54" s="26"/>
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="C55" s="26"/>
+      <c r="D55" s="10"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="26" t="s">
+        <v>367</v>
+      </c>
+      <c r="B56" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="C56" s="26"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="10"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="B57" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="C57" s="26"/>
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="B58" s="26" t="s">
+        <v>474</v>
+      </c>
+      <c r="C58" s="26"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>475</v>
+      </c>
+      <c r="C59" s="26"/>
+      <c r="D59" s="10"/>
+      <c r="E59" s="10"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="B60" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="C60" s="26"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="B61" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="C61" s="26"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="B62" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="C62" s="26"/>
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>514</v>
+      </c>
+      <c r="C63" s="26"/>
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="B64" s="26" t="s">
+        <v>513</v>
+      </c>
+      <c r="C64" s="26"/>
+      <c r="D64" s="10"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="B65" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="C65" s="26"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="B66" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="C66" s="26"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="B67" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="C67" s="26"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="B68" s="26" t="s">
+        <v>509</v>
+      </c>
+      <c r="C68" s="26"/>
+      <c r="D68" s="10"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="B69" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="C69" s="26"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="B70" s="26" t="s">
+        <v>507</v>
+      </c>
+      <c r="C70" s="26"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="C71" s="26"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="B72" s="26" t="s">
+        <v>503</v>
+      </c>
+      <c r="C72" s="26"/>
+      <c r="D72" s="10"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="C73" s="26"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="B74" s="26" t="s">
+        <v>504</v>
+      </c>
+      <c r="C74" s="26"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="B75" s="26" t="s">
+        <v>478</v>
+      </c>
+      <c r="C75" s="26"/>
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="B76" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="C76" s="26"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="B77" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="C77" s="26"/>
+      <c r="D77" s="10"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="B78" s="26" t="s">
+        <v>481</v>
+      </c>
+      <c r="C78" s="26"/>
+      <c r="D78" s="10"/>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="B79" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="C79" s="26"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>483</v>
+      </c>
+      <c r="C80" s="26"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="B81" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="C81" s="26"/>
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="B82" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="C82" s="26"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="C83" s="26"/>
+      <c r="D83" s="10"/>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="B84" s="26" t="s">
+        <v>495</v>
+      </c>
+      <c r="C84" s="26"/>
+      <c r="D84" s="10"/>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="B85" s="26" t="s">
+        <v>496</v>
+      </c>
+      <c r="C85" s="26"/>
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B86" s="26" t="s">
+        <v>497</v>
+      </c>
+      <c r="C86" s="26"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>498</v>
+      </c>
+      <c r="C87" s="26"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B88" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="C88" s="26"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B89" s="26" t="s">
+        <v>500</v>
+      </c>
+      <c r="C89" s="26"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B90" s="26" t="s">
+        <v>501</v>
+      </c>
+      <c r="C90" s="26"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B91" s="26" t="s">
+        <v>502</v>
+      </c>
+      <c r="C91" s="26"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B92" s="26" t="s">
+        <v>492</v>
+      </c>
+      <c r="C92" s="26"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B93" s="26" t="s">
+        <v>491</v>
+      </c>
+      <c r="C93" s="26"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B94" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="C94" s="26"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="10"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H94" s="10"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="C95" s="26"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H95" s="10"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B96" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="C96" s="26"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H96" s="10"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B97" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="C97" s="26"/>
+      <c r="D97" s="10"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H97" s="10"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="C98" s="26"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H98" s="10"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B99" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="C99" s="26"/>
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H99" s="10"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B100" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="C100" s="26"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H100" s="10"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B101" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="C101" s="26"/>
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H101" s="10"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B102" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="C102" s="26"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H102" s="10"/>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B103" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="C103" s="26"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H103" s="10"/>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B104" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="C104" s="26"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H104" s="10"/>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B105" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="C105" s="26"/>
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H105" s="10"/>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B106" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="C106" s="26"/>
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H106" s="10"/>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B107" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="C107" s="26"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="H107" s="10"/>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B108" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="C108" s="26"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B109" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="C109" s="26"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B110" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="C110" s="26"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B111" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="C111" s="26"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B112" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="C112" s="26"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B113" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="C113" s="26"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B114" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="C114" s="26"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B115" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="C115" s="26"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B116" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="C116" s="26"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B117" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="C117" s="26"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A118" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B118" s="26" t="s">
+        <v>416</v>
+      </c>
+      <c r="C118" s="26"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A119" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B119" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="C119" s="26"/>
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B120" s="26" t="s">
+        <v>415</v>
+      </c>
+      <c r="C120" s="26"/>
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A121" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B121" s="26" t="s">
+        <v>414</v>
+      </c>
+      <c r="C121" s="26"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="B122" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="C122" s="26"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="B123" s="26" t="s">
+        <v>409</v>
+      </c>
+      <c r="C123" s="26"/>
+      <c r="D123" s="10"/>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="B124" s="26" t="s">
+        <v>408</v>
+      </c>
+      <c r="C124" s="26"/>
+      <c r="D124" s="10"/>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="B125" s="26" t="s">
+        <v>407</v>
+      </c>
+      <c r="C125" s="26"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="B126" s="26" t="s">
+        <v>410</v>
+      </c>
+      <c r="C126" s="26"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A127" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="B127" s="26" t="s">
+        <v>411</v>
+      </c>
+      <c r="C127" s="26"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128" s="26" t="s">
+        <v>379</v>
+      </c>
+      <c r="B128" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="C128" s="26"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>